--- a/SearchResults_topic_mental-health_guideline.xlsx
+++ b/SearchResults_topic_mental-health_guideline.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -451,12 +455,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>retry</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>pub_date</t>
         </is>
       </c>
     </row>
@@ -475,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>40884</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +500,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>43530</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
         <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>39729</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +542,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
         <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>42069</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
         <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>43868</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +581,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>38917</v>
       </c>
     </row>
     <row r="8">
@@ -601,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>40093</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +623,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>42359</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +644,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44137</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +665,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>44137</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +686,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>42878</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +707,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>41565</v>
       </c>
     </row>
     <row r="14">
@@ -727,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>43200</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +749,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>43185</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +770,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>41944</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +791,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>43055</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +812,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>42698</v>
       </c>
     </row>
     <row r="19">
@@ -832,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>42914</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +854,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>43453</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +875,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>39281</v>
       </c>
     </row>
     <row r="22">
@@ -892,13 +896,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>42884</v>
       </c>
     </row>
     <row r="23">
@@ -913,13 +917,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>43061</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +938,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>43851</v>
       </c>
     </row>
     <row r="25">
@@ -958,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>43886</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +980,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>40954</v>
       </c>
     </row>
     <row r="27">
@@ -1000,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>38644</v>
       </c>
     </row>
     <row r="28">
@@ -1021,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>41255</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1043,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>43959</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1064,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>43178</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1085,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45050</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1106,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>43816</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1127,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>39106</v>
       </c>
     </row>
     <row r="34">
@@ -1147,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>37095</v>
       </c>
     </row>
     <row r="35">
@@ -1168,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44467</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>39281</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1211,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>43794</v>
       </c>
     </row>
     <row r="38">
@@ -1231,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44015</v>
       </c>
     </row>
     <row r="39">
@@ -1252,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>36367</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1274,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>42759</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1295,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>41475</v>
       </c>
     </row>
     <row r="42">
@@ -1315,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44395</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1337,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>36822</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1358,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>36549</v>
       </c>
     </row>
     <row r="45">
@@ -1378,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>39918</v>
       </c>
     </row>
     <row r="46">
@@ -1399,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>39470</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1421,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>42115</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1442,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>43006</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1463,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>41973</v>
       </c>
     </row>
     <row r="50">
@@ -1483,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>37733</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1505,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>43077</v>
       </c>
     </row>
     <row r="52">
@@ -1525,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45251</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1547,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>42719</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1568,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44150</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1589,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>40618</v>
       </c>
     </row>
     <row r="56">
@@ -1606,13 +1610,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>43559</v>
       </c>
     </row>
     <row r="57">
@@ -1630,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44259</v>
       </c>
     </row>
     <row r="58">
@@ -1648,13 +1652,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>39834</v>
       </c>
     </row>
     <row r="59">
@@ -1669,13 +1673,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>39008</v>
       </c>
     </row>
     <row r="60">
@@ -1690,13 +1694,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>42759</v>
       </c>
     </row>
     <row r="61">
@@ -1714,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>42054</v>
       </c>
     </row>
     <row r="62">
@@ -1735,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>43576</v>
       </c>
     </row>
     <row r="63">
@@ -1756,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44998</v>
       </c>
     </row>
     <row r="64">
@@ -1774,13 +1778,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>42339</v>
       </c>
     </row>
     <row r="65">
@@ -1795,13 +1799,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>42265</v>
       </c>
     </row>
     <row r="66">
@@ -1819,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>41255</v>
       </c>
     </row>
     <row r="67">
@@ -1837,13 +1841,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>39281</v>
       </c>
     </row>
     <row r="68">
@@ -1858,13 +1862,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>41669</v>
       </c>
     </row>
     <row r="69">
@@ -1879,13 +1883,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>42104</v>
       </c>
     </row>
     <row r="70">
@@ -1900,13 +1904,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>42097</v>
       </c>
     </row>
     <row r="71">
@@ -1921,13 +1925,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>38644</v>
       </c>
     </row>
     <row r="72">
@@ -1942,13 +1946,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>38462</v>
       </c>
     </row>
     <row r="73">
@@ -1966,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>41199</v>
       </c>
     </row>
     <row r="74">
@@ -1984,13 +1988,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>37368</v>
       </c>
     </row>
     <row r="75">
@@ -2008,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>43687</v>
       </c>
     </row>
     <row r="76">
@@ -2029,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44524</v>
       </c>
     </row>
     <row r="77">
@@ -2047,13 +2051,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>36913</v>
       </c>
     </row>
     <row r="78">
@@ -2068,13 +2072,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>38917</v>
       </c>
     </row>
     <row r="79">
@@ -2092,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44602</v>
       </c>
     </row>
     <row r="80">
@@ -2110,13 +2114,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>42741</v>
       </c>
     </row>
     <row r="81">
@@ -2131,13 +2135,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>39008</v>
       </c>
     </row>
     <row r="82">
@@ -2157,9 +2161,7 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2178,9 +2180,7 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2199,9 +2199,7 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2220,9 +2218,7 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2241,9 +2237,7 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2262,9 +2256,7 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2283,9 +2275,7 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2304,9 +2294,7 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2325,9 +2313,7 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2346,9 +2332,7 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2367,9 +2351,7 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2388,9 +2370,7 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2409,9 +2389,7 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2430,9 +2408,7 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2451,9 +2427,7 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2472,9 +2446,7 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2493,9 +2465,7 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2514,9 +2484,7 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2535,9 +2503,7 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2556,9 +2522,7 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2577,9 +2541,7 @@
       <c r="D102" t="n">
         <v>0</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2598,9 +2560,7 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2619,9 +2579,7 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2640,9 +2598,7 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2661,9 +2617,7 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2682,9 +2636,7 @@
       <c r="D107" t="n">
         <v>0</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2703,9 +2655,7 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2724,9 +2674,7 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2745,9 +2693,7 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2766,9 +2712,7 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
+      <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2787,9 +2731,7 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2808,9 +2750,7 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
+      <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2829,9 +2769,7 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
+      <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2850,9 +2788,7 @@
       <c r="D115" t="n">
         <v>0</v>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2871,9 +2807,7 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2892,9 +2826,7 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2913,9 +2845,7 @@
       <c r="D118" t="n">
         <v>0</v>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
+      <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2934,9 +2864,7 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2955,9 +2883,7 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
+      <c r="E120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2976,9 +2902,7 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
+      <c r="E121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2997,9 +2921,7 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3018,9 +2940,7 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
+      <c r="E123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3039,9 +2959,7 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
+      <c r="E124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3060,9 +2978,7 @@
       <c r="D125" t="n">
         <v>0</v>
       </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
+      <c r="E125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3081,9 +2997,7 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
+      <c r="E126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3102,9 +3016,7 @@
       <c r="D127" t="n">
         <v>0</v>
       </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
+      <c r="E127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3123,9 +3035,7 @@
       <c r="D128" t="n">
         <v>0</v>
       </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
+      <c r="E128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3144,9 +3054,7 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
+      <c r="E129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3165,9 +3073,7 @@
       <c r="D130" t="n">
         <v>0</v>
       </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
+      <c r="E130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3186,9 +3092,7 @@
       <c r="D131" t="n">
         <v>0</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
+      <c r="E131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3207,9 +3111,7 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
+      <c r="E132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3228,9 +3130,7 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
+      <c r="E133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3249,9 +3149,7 @@
       <c r="D134" t="n">
         <v>0</v>
       </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
+      <c r="E134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3270,9 +3168,7 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
+      <c r="E135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3291,9 +3187,7 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3312,9 +3206,7 @@
       <c r="D137" t="n">
         <v>0</v>
       </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3333,9 +3225,7 @@
       <c r="D138" t="n">
         <v>0</v>
       </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
+      <c r="E138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3354,9 +3244,7 @@
       <c r="D139" t="n">
         <v>0</v>
       </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
+      <c r="E139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3375,9 +3263,7 @@
       <c r="D140" t="n">
         <v>0</v>
       </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3396,9 +3282,7 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3417,9 +3301,7 @@
       <c r="D142" t="n">
         <v>0</v>
       </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
+      <c r="E142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3438,9 +3320,7 @@
       <c r="D143" t="n">
         <v>0</v>
       </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
+      <c r="E143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3459,9 +3339,7 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
-      <c r="E144" t="n">
-        <v>0</v>
-      </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3480,9 +3358,7 @@
       <c r="D145" t="n">
         <v>0</v>
       </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3501,9 +3377,7 @@
       <c r="D146" t="n">
         <v>0</v>
       </c>
-      <c r="E146" t="n">
-        <v>0</v>
-      </c>
+      <c r="E146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3522,9 +3396,7 @@
       <c r="D147" t="n">
         <v>0</v>
       </c>
-      <c r="E147" t="n">
-        <v>0</v>
-      </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3543,9 +3415,7 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3564,9 +3434,7 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="n">
-        <v>0</v>
-      </c>
+      <c r="E149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3585,9 +3453,7 @@
       <c r="D150" t="n">
         <v>0</v>
       </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
+      <c r="E150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3606,9 +3472,7 @@
       <c r="D151" t="n">
         <v>0</v>
       </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3627,9 +3491,7 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
+      <c r="E152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3648,9 +3510,7 @@
       <c r="D153" t="n">
         <v>0</v>
       </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
+      <c r="E153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3669,9 +3529,7 @@
       <c r="D154" t="n">
         <v>0</v>
       </c>
-      <c r="E154" t="n">
-        <v>0</v>
-      </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3690,9 +3548,7 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3711,9 +3567,7 @@
       <c r="D156" t="n">
         <v>0</v>
       </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3732,9 +3586,7 @@
       <c r="D157" t="n">
         <v>0</v>
       </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3753,9 +3605,7 @@
       <c r="D158" t="n">
         <v>0</v>
       </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3774,9 +3624,7 @@
       <c r="D159" t="n">
         <v>0</v>
       </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
+      <c r="E159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3795,9 +3643,7 @@
       <c r="D160" t="n">
         <v>0</v>
       </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3816,9 +3662,7 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3837,9 +3681,7 @@
       <c r="D162" t="n">
         <v>0</v>
       </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3858,9 +3700,7 @@
       <c r="D163" t="n">
         <v>0</v>
       </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3879,9 +3719,7 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
+      <c r="E164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3900,9 +3738,7 @@
       <c r="D165" t="n">
         <v>0</v>
       </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
+      <c r="E165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3921,9 +3757,7 @@
       <c r="D166" t="n">
         <v>0</v>
       </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3942,9 +3776,7 @@
       <c r="D167" t="n">
         <v>0</v>
       </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
+      <c r="E167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3963,9 +3795,7 @@
       <c r="D168" t="n">
         <v>0</v>
       </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3984,9 +3814,7 @@
       <c r="D169" t="n">
         <v>0</v>
       </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4005,9 +3833,7 @@
       <c r="D170" t="n">
         <v>0</v>
       </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4026,9 +3852,7 @@
       <c r="D171" t="n">
         <v>0</v>
       </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4047,9 +3871,7 @@
       <c r="D172" t="n">
         <v>0</v>
       </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4068,9 +3890,7 @@
       <c r="D173" t="n">
         <v>0</v>
       </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4089,9 +3909,7 @@
       <c r="D174" t="n">
         <v>0</v>
       </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4110,9 +3928,7 @@
       <c r="D175" t="n">
         <v>0</v>
       </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4131,9 +3947,7 @@
       <c r="D176" t="n">
         <v>0</v>
       </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4152,9 +3966,7 @@
       <c r="D177" t="n">
         <v>0</v>
       </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4173,9 +3985,7 @@
       <c r="D178" t="n">
         <v>0</v>
       </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4194,9 +4004,7 @@
       <c r="D179" t="n">
         <v>0</v>
       </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4215,9 +4023,7 @@
       <c r="D180" t="n">
         <v>0</v>
       </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4236,9 +4042,7 @@
       <c r="D181" t="n">
         <v>0</v>
       </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4257,9 +4061,7 @@
       <c r="D182" t="n">
         <v>0</v>
       </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4278,9 +4080,7 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4299,9 +4099,7 @@
       <c r="D184" t="n">
         <v>0</v>
       </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4320,9 +4118,7 @@
       <c r="D185" t="n">
         <v>0</v>
       </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4341,9 +4137,7 @@
       <c r="D186" t="n">
         <v>0</v>
       </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4362,9 +4156,7 @@
       <c r="D187" t="n">
         <v>0</v>
       </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4383,9 +4175,7 @@
       <c r="D188" t="n">
         <v>0</v>
       </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4404,9 +4194,7 @@
       <c r="D189" t="n">
         <v>0</v>
       </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
+      <c r="E189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4425,9 +4213,7 @@
       <c r="D190" t="n">
         <v>0</v>
       </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4446,9 +4232,7 @@
       <c r="D191" t="n">
         <v>0</v>
       </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4467,9 +4251,7 @@
       <c r="D192" t="n">
         <v>0</v>
       </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4488,9 +4270,7 @@
       <c r="D193" t="n">
         <v>0</v>
       </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4509,9 +4289,7 @@
       <c r="D194" t="n">
         <v>0</v>
       </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4530,9 +4308,7 @@
       <c r="D195" t="n">
         <v>0</v>
       </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4551,9 +4327,7 @@
       <c r="D196" t="n">
         <v>0</v>
       </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4572,9 +4346,7 @@
       <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4593,9 +4365,7 @@
       <c r="D198" t="n">
         <v>0</v>
       </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4614,9 +4384,7 @@
       <c r="D199" t="n">
         <v>0</v>
       </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
+      <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4635,9 +4403,7 @@
       <c r="D200" t="n">
         <v>0</v>
       </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4656,9 +4422,7 @@
       <c r="D201" t="n">
         <v>0</v>
       </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
+      <c r="E201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4677,9 +4441,7 @@
       <c r="D202" t="n">
         <v>0</v>
       </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4698,9 +4460,7 @@
       <c r="D203" t="n">
         <v>0</v>
       </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4719,9 +4479,7 @@
       <c r="D204" t="n">
         <v>0</v>
       </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4740,9 +4498,7 @@
       <c r="D205" t="n">
         <v>0</v>
       </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4761,9 +4517,7 @@
       <c r="D206" t="n">
         <v>0</v>
       </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
+      <c r="E206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4782,9 +4536,7 @@
       <c r="D207" t="n">
         <v>0</v>
       </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4803,9 +4555,7 @@
       <c r="D208" t="n">
         <v>0</v>
       </c>
-      <c r="E208" t="n">
-        <v>0</v>
-      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4824,9 +4574,7 @@
       <c r="D209" t="n">
         <v>0</v>
       </c>
-      <c r="E209" t="n">
-        <v>0</v>
-      </c>
+      <c r="E209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4845,9 +4593,7 @@
       <c r="D210" t="n">
         <v>0</v>
       </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4866,9 +4612,7 @@
       <c r="D211" t="n">
         <v>0</v>
       </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4887,9 +4631,7 @@
       <c r="D212" t="n">
         <v>0</v>
       </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
+      <c r="E212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4908,9 +4650,7 @@
       <c r="D213" t="n">
         <v>0</v>
       </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4929,9 +4669,7 @@
       <c r="D214" t="n">
         <v>0</v>
       </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4950,9 +4688,7 @@
       <c r="D215" t="n">
         <v>0</v>
       </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4971,9 +4707,7 @@
       <c r="D216" t="n">
         <v>0</v>
       </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4992,9 +4726,7 @@
       <c r="D217" t="n">
         <v>0</v>
       </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5013,9 +4745,7 @@
       <c r="D218" t="n">
         <v>0</v>
       </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5034,9 +4764,7 @@
       <c r="D219" t="n">
         <v>0</v>
       </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
+      <c r="E219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5055,9 +4783,7 @@
       <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5076,9 +4802,7 @@
       <c r="D221" t="n">
         <v>0</v>
       </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
+      <c r="E221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5097,9 +4821,7 @@
       <c r="D222" t="n">
         <v>0</v>
       </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5118,9 +4840,7 @@
       <c r="D223" t="n">
         <v>0</v>
       </c>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5139,9 +4859,7 @@
       <c r="D224" t="n">
         <v>0</v>
       </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5160,9 +4878,7 @@
       <c r="D225" t="n">
         <v>0</v>
       </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5181,9 +4897,7 @@
       <c r="D226" t="n">
         <v>0</v>
       </c>
-      <c r="E226" t="n">
-        <v>0</v>
-      </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5202,9 +4916,7 @@
       <c r="D227" t="n">
         <v>0</v>
       </c>
-      <c r="E227" t="n">
-        <v>0</v>
-      </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5223,9 +4935,7 @@
       <c r="D228" t="n">
         <v>0</v>
       </c>
-      <c r="E228" t="n">
-        <v>0</v>
-      </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5244,9 +4954,7 @@
       <c r="D229" t="n">
         <v>0</v>
       </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5265,9 +4973,7 @@
       <c r="D230" t="n">
         <v>0</v>
       </c>
-      <c r="E230" t="n">
-        <v>0</v>
-      </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5286,9 +4992,7 @@
       <c r="D231" t="n">
         <v>0</v>
       </c>
-      <c r="E231" t="n">
-        <v>0</v>
-      </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5307,9 +5011,7 @@
       <c r="D232" t="n">
         <v>0</v>
       </c>
-      <c r="E232" t="n">
-        <v>0</v>
-      </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5328,9 +5030,7 @@
       <c r="D233" t="n">
         <v>0</v>
       </c>
-      <c r="E233" t="n">
-        <v>0</v>
-      </c>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5349,9 +5049,7 @@
       <c r="D234" t="n">
         <v>0</v>
       </c>
-      <c r="E234" t="n">
-        <v>0</v>
-      </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5370,9 +5068,7 @@
       <c r="D235" t="n">
         <v>0</v>
       </c>
-      <c r="E235" t="n">
-        <v>0</v>
-      </c>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5391,9 +5087,7 @@
       <c r="D236" t="n">
         <v>0</v>
       </c>
-      <c r="E236" t="n">
-        <v>0</v>
-      </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5412,9 +5106,7 @@
       <c r="D237" t="n">
         <v>0</v>
       </c>
-      <c r="E237" t="n">
-        <v>0</v>
-      </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5433,9 +5125,7 @@
       <c r="D238" t="n">
         <v>0</v>
       </c>
-      <c r="E238" t="n">
-        <v>0</v>
-      </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5454,9 +5144,7 @@
       <c r="D239" t="n">
         <v>0</v>
       </c>
-      <c r="E239" t="n">
-        <v>0</v>
-      </c>
+      <c r="E239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5475,9 +5163,7 @@
       <c r="D240" t="n">
         <v>0</v>
       </c>
-      <c r="E240" t="n">
-        <v>0</v>
-      </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5496,9 +5182,7 @@
       <c r="D241" t="n">
         <v>0</v>
       </c>
-      <c r="E241" t="n">
-        <v>0</v>
-      </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5517,9 +5201,7 @@
       <c r="D242" t="n">
         <v>0</v>
       </c>
-      <c r="E242" t="n">
-        <v>0</v>
-      </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5538,9 +5220,7 @@
       <c r="D243" t="n">
         <v>0</v>
       </c>
-      <c r="E243" t="n">
-        <v>0</v>
-      </c>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5559,9 +5239,7 @@
       <c r="D244" t="n">
         <v>0</v>
       </c>
-      <c r="E244" t="n">
-        <v>0</v>
-      </c>
+      <c r="E244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5580,9 +5258,7 @@
       <c r="D245" t="n">
         <v>0</v>
       </c>
-      <c r="E245" t="n">
-        <v>0</v>
-      </c>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5601,9 +5277,7 @@
       <c r="D246" t="n">
         <v>0</v>
       </c>
-      <c r="E246" t="n">
-        <v>0</v>
-      </c>
+      <c r="E246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5622,9 +5296,7 @@
       <c r="D247" t="n">
         <v>0</v>
       </c>
-      <c r="E247" t="n">
-        <v>0</v>
-      </c>
+      <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5643,9 +5315,7 @@
       <c r="D248" t="n">
         <v>0</v>
       </c>
-      <c r="E248" t="n">
-        <v>0</v>
-      </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5664,9 +5334,7 @@
       <c r="D249" t="n">
         <v>0</v>
       </c>
-      <c r="E249" t="n">
-        <v>0</v>
-      </c>
+      <c r="E249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5685,9 +5353,7 @@
       <c r="D250" t="n">
         <v>0</v>
       </c>
-      <c r="E250" t="n">
-        <v>0</v>
-      </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5706,9 +5372,7 @@
       <c r="D251" t="n">
         <v>0</v>
       </c>
-      <c r="E251" t="n">
-        <v>0</v>
-      </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5727,9 +5391,7 @@
       <c r="D252" t="n">
         <v>0</v>
       </c>
-      <c r="E252" t="n">
-        <v>0</v>
-      </c>
+      <c r="E252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5748,9 +5410,7 @@
       <c r="D253" t="n">
         <v>0</v>
       </c>
-      <c r="E253" t="n">
-        <v>0</v>
-      </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5769,9 +5429,7 @@
       <c r="D254" t="n">
         <v>0</v>
       </c>
-      <c r="E254" t="n">
-        <v>0</v>
-      </c>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5790,9 +5448,7 @@
       <c r="D255" t="n">
         <v>0</v>
       </c>
-      <c r="E255" t="n">
-        <v>0</v>
-      </c>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5811,9 +5467,7 @@
       <c r="D256" t="n">
         <v>0</v>
       </c>
-      <c r="E256" t="n">
-        <v>0</v>
-      </c>
+      <c r="E256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -5832,9 +5486,7 @@
       <c r="D257" t="n">
         <v>0</v>
       </c>
-      <c r="E257" t="n">
-        <v>0</v>
-      </c>
+      <c r="E257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5853,9 +5505,7 @@
       <c r="D258" t="n">
         <v>0</v>
       </c>
-      <c r="E258" t="n">
-        <v>0</v>
-      </c>
+      <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -5874,9 +5524,7 @@
       <c r="D259" t="n">
         <v>0</v>
       </c>
-      <c r="E259" t="n">
-        <v>0</v>
-      </c>
+      <c r="E259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -5895,9 +5543,7 @@
       <c r="D260" t="n">
         <v>0</v>
       </c>
-      <c r="E260" t="n">
-        <v>0</v>
-      </c>
+      <c r="E260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -5916,9 +5562,7 @@
       <c r="D261" t="n">
         <v>0</v>
       </c>
-      <c r="E261" t="n">
-        <v>0</v>
-      </c>
+      <c r="E261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -5937,9 +5581,7 @@
       <c r="D262" t="n">
         <v>0</v>
       </c>
-      <c r="E262" t="n">
-        <v>0</v>
-      </c>
+      <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5958,9 +5600,7 @@
       <c r="D263" t="n">
         <v>0</v>
       </c>
-      <c r="E263" t="n">
-        <v>0</v>
-      </c>
+      <c r="E263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -5979,9 +5619,7 @@
       <c r="D264" t="n">
         <v>0</v>
       </c>
-      <c r="E264" t="n">
-        <v>0</v>
-      </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6000,9 +5638,7 @@
       <c r="D265" t="n">
         <v>0</v>
       </c>
-      <c r="E265" t="n">
-        <v>0</v>
-      </c>
+      <c r="E265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6021,9 +5657,7 @@
       <c r="D266" t="n">
         <v>0</v>
       </c>
-      <c r="E266" t="n">
-        <v>0</v>
-      </c>
+      <c r="E266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6042,9 +5676,7 @@
       <c r="D267" t="n">
         <v>0</v>
       </c>
-      <c r="E267" t="n">
-        <v>0</v>
-      </c>
+      <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6063,9 +5695,7 @@
       <c r="D268" t="n">
         <v>0</v>
       </c>
-      <c r="E268" t="n">
-        <v>0</v>
-      </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6084,9 +5714,7 @@
       <c r="D269" t="n">
         <v>0</v>
       </c>
-      <c r="E269" t="n">
-        <v>0</v>
-      </c>
+      <c r="E269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6105,9 +5733,7 @@
       <c r="D270" t="n">
         <v>0</v>
       </c>
-      <c r="E270" t="n">
-        <v>0</v>
-      </c>
+      <c r="E270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6126,9 +5752,7 @@
       <c r="D271" t="n">
         <v>0</v>
       </c>
-      <c r="E271" t="n">
-        <v>0</v>
-      </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6147,9 +5771,7 @@
       <c r="D272" t="n">
         <v>0</v>
       </c>
-      <c r="E272" t="n">
-        <v>0</v>
-      </c>
+      <c r="E272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6168,9 +5790,7 @@
       <c r="D273" t="n">
         <v>0</v>
       </c>
-      <c r="E273" t="n">
-        <v>0</v>
-      </c>
+      <c r="E273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6189,9 +5809,7 @@
       <c r="D274" t="n">
         <v>0</v>
       </c>
-      <c r="E274" t="n">
-        <v>0</v>
-      </c>
+      <c r="E274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6210,9 +5828,7 @@
       <c r="D275" t="n">
         <v>0</v>
       </c>
-      <c r="E275" t="n">
-        <v>0</v>
-      </c>
+      <c r="E275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6231,9 +5847,7 @@
       <c r="D276" t="n">
         <v>0</v>
       </c>
-      <c r="E276" t="n">
-        <v>0</v>
-      </c>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6252,9 +5866,7 @@
       <c r="D277" t="n">
         <v>0</v>
       </c>
-      <c r="E277" t="n">
-        <v>0</v>
-      </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6273,9 +5885,7 @@
       <c r="D278" t="n">
         <v>0</v>
       </c>
-      <c r="E278" t="n">
-        <v>0</v>
-      </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6294,9 +5904,7 @@
       <c r="D279" t="n">
         <v>0</v>
       </c>
-      <c r="E279" t="n">
-        <v>0</v>
-      </c>
+      <c r="E279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6315,9 +5923,7 @@
       <c r="D280" t="n">
         <v>0</v>
       </c>
-      <c r="E280" t="n">
-        <v>0</v>
-      </c>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6336,9 +5942,7 @@
       <c r="D281" t="n">
         <v>0</v>
       </c>
-      <c r="E281" t="n">
-        <v>0</v>
-      </c>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6357,9 +5961,7 @@
       <c r="D282" t="n">
         <v>0</v>
       </c>
-      <c r="E282" t="n">
-        <v>0</v>
-      </c>
+      <c r="E282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6378,9 +5980,7 @@
       <c r="D283" t="n">
         <v>0</v>
       </c>
-      <c r="E283" t="n">
-        <v>0</v>
-      </c>
+      <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6399,9 +5999,7 @@
       <c r="D284" t="n">
         <v>0</v>
       </c>
-      <c r="E284" t="n">
-        <v>0</v>
-      </c>
+      <c r="E284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6420,9 +6018,7 @@
       <c r="D285" t="n">
         <v>0</v>
       </c>
-      <c r="E285" t="n">
-        <v>0</v>
-      </c>
+      <c r="E285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6441,9 +6037,7 @@
       <c r="D286" t="n">
         <v>0</v>
       </c>
-      <c r="E286" t="n">
-        <v>0</v>
-      </c>
+      <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6462,9 +6056,7 @@
       <c r="D287" t="n">
         <v>0</v>
       </c>
-      <c r="E287" t="n">
-        <v>0</v>
-      </c>
+      <c r="E287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6483,9 +6075,7 @@
       <c r="D288" t="n">
         <v>0</v>
       </c>
-      <c r="E288" t="n">
-        <v>0</v>
-      </c>
+      <c r="E288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6504,9 +6094,7 @@
       <c r="D289" t="n">
         <v>0</v>
       </c>
-      <c r="E289" t="n">
-        <v>0</v>
-      </c>
+      <c r="E289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6525,9 +6113,7 @@
       <c r="D290" t="n">
         <v>0</v>
       </c>
-      <c r="E290" t="n">
-        <v>0</v>
-      </c>
+      <c r="E290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6546,9 +6132,7 @@
       <c r="D291" t="n">
         <v>0</v>
       </c>
-      <c r="E291" t="n">
-        <v>0</v>
-      </c>
+      <c r="E291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6567,9 +6151,7 @@
       <c r="D292" t="n">
         <v>0</v>
       </c>
-      <c r="E292" t="n">
-        <v>0</v>
-      </c>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6588,9 +6170,7 @@
       <c r="D293" t="n">
         <v>0</v>
       </c>
-      <c r="E293" t="n">
-        <v>0</v>
-      </c>
+      <c r="E293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6609,9 +6189,7 @@
       <c r="D294" t="n">
         <v>0</v>
       </c>
-      <c r="E294" t="n">
-        <v>0</v>
-      </c>
+      <c r="E294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6630,9 +6208,7 @@
       <c r="D295" t="n">
         <v>0</v>
       </c>
-      <c r="E295" t="n">
-        <v>0</v>
-      </c>
+      <c r="E295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6651,9 +6227,7 @@
       <c r="D296" t="n">
         <v>0</v>
       </c>
-      <c r="E296" t="n">
-        <v>0</v>
-      </c>
+      <c r="E296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6672,9 +6246,7 @@
       <c r="D297" t="n">
         <v>0</v>
       </c>
-      <c r="E297" t="n">
-        <v>0</v>
-      </c>
+      <c r="E297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6693,9 +6265,7 @@
       <c r="D298" t="n">
         <v>0</v>
       </c>
-      <c r="E298" t="n">
-        <v>0</v>
-      </c>
+      <c r="E298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6714,9 +6284,7 @@
       <c r="D299" t="n">
         <v>0</v>
       </c>
-      <c r="E299" t="n">
-        <v>0</v>
-      </c>
+      <c r="E299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6735,9 +6303,7 @@
       <c r="D300" t="n">
         <v>0</v>
       </c>
-      <c r="E300" t="n">
-        <v>0</v>
-      </c>
+      <c r="E300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6756,9 +6322,7 @@
       <c r="D301" t="n">
         <v>0</v>
       </c>
-      <c r="E301" t="n">
-        <v>0</v>
-      </c>
+      <c r="E301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6777,9 +6341,7 @@
       <c r="D302" t="n">
         <v>0</v>
       </c>
-      <c r="E302" t="n">
-        <v>0</v>
-      </c>
+      <c r="E302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -6798,9 +6360,7 @@
       <c r="D303" t="n">
         <v>0</v>
       </c>
-      <c r="E303" t="n">
-        <v>0</v>
-      </c>
+      <c r="E303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -6819,9 +6379,7 @@
       <c r="D304" t="n">
         <v>0</v>
       </c>
-      <c r="E304" t="n">
-        <v>0</v>
-      </c>
+      <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6840,9 +6398,7 @@
       <c r="D305" t="n">
         <v>0</v>
       </c>
-      <c r="E305" t="n">
-        <v>0</v>
-      </c>
+      <c r="E305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -6861,9 +6417,7 @@
       <c r="D306" t="n">
         <v>0</v>
       </c>
-      <c r="E306" t="n">
-        <v>0</v>
-      </c>
+      <c r="E306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6882,9 +6436,7 @@
       <c r="D307" t="n">
         <v>0</v>
       </c>
-      <c r="E307" t="n">
-        <v>0</v>
-      </c>
+      <c r="E307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6903,9 +6455,7 @@
       <c r="D308" t="n">
         <v>0</v>
       </c>
-      <c r="E308" t="n">
-        <v>0</v>
-      </c>
+      <c r="E308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6924,9 +6474,7 @@
       <c r="D309" t="n">
         <v>0</v>
       </c>
-      <c r="E309" t="n">
-        <v>0</v>
-      </c>
+      <c r="E309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -6945,9 +6493,7 @@
       <c r="D310" t="n">
         <v>0</v>
       </c>
-      <c r="E310" t="n">
-        <v>0</v>
-      </c>
+      <c r="E310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6966,9 +6512,7 @@
       <c r="D311" t="n">
         <v>0</v>
       </c>
-      <c r="E311" t="n">
-        <v>0</v>
-      </c>
+      <c r="E311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -6987,9 +6531,7 @@
       <c r="D312" t="n">
         <v>0</v>
       </c>
-      <c r="E312" t="n">
-        <v>0</v>
-      </c>
+      <c r="E312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7008,9 +6550,7 @@
       <c r="D313" t="n">
         <v>0</v>
       </c>
-      <c r="E313" t="n">
-        <v>0</v>
-      </c>
+      <c r="E313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7029,9 +6569,7 @@
       <c r="D314" t="n">
         <v>0</v>
       </c>
-      <c r="E314" t="n">
-        <v>0</v>
-      </c>
+      <c r="E314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7050,9 +6588,7 @@
       <c r="D315" t="n">
         <v>0</v>
       </c>
-      <c r="E315" t="n">
-        <v>0</v>
-      </c>
+      <c r="E315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7071,9 +6607,7 @@
       <c r="D316" t="n">
         <v>0</v>
       </c>
-      <c r="E316" t="n">
-        <v>0</v>
-      </c>
+      <c r="E316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7092,9 +6626,7 @@
       <c r="D317" t="n">
         <v>0</v>
       </c>
-      <c r="E317" t="n">
-        <v>0</v>
-      </c>
+      <c r="E317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7113,9 +6645,7 @@
       <c r="D318" t="n">
         <v>0</v>
       </c>
-      <c r="E318" t="n">
-        <v>0</v>
-      </c>
+      <c r="E318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7134,9 +6664,7 @@
       <c r="D319" t="n">
         <v>0</v>
       </c>
-      <c r="E319" t="n">
-        <v>0</v>
-      </c>
+      <c r="E319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7155,9 +6683,7 @@
       <c r="D320" t="n">
         <v>0</v>
       </c>
-      <c r="E320" t="n">
-        <v>0</v>
-      </c>
+      <c r="E320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7176,9 +6702,7 @@
       <c r="D321" t="n">
         <v>0</v>
       </c>
-      <c r="E321" t="n">
-        <v>0</v>
-      </c>
+      <c r="E321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7197,9 +6721,7 @@
       <c r="D322" t="n">
         <v>0</v>
       </c>
-      <c r="E322" t="n">
-        <v>0</v>
-      </c>
+      <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7218,9 +6740,7 @@
       <c r="D323" t="n">
         <v>0</v>
       </c>
-      <c r="E323" t="n">
-        <v>0</v>
-      </c>
+      <c r="E323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7239,9 +6759,7 @@
       <c r="D324" t="n">
         <v>0</v>
       </c>
-      <c r="E324" t="n">
-        <v>0</v>
-      </c>
+      <c r="E324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7260,9 +6778,7 @@
       <c r="D325" t="n">
         <v>0</v>
       </c>
-      <c r="E325" t="n">
-        <v>0</v>
-      </c>
+      <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7281,9 +6797,7 @@
       <c r="D326" t="n">
         <v>0</v>
       </c>
-      <c r="E326" t="n">
-        <v>0</v>
-      </c>
+      <c r="E326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7302,9 +6816,7 @@
       <c r="D327" t="n">
         <v>0</v>
       </c>
-      <c r="E327" t="n">
-        <v>0</v>
-      </c>
+      <c r="E327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7323,9 +6835,7 @@
       <c r="D328" t="n">
         <v>0</v>
       </c>
-      <c r="E328" t="n">
-        <v>0</v>
-      </c>
+      <c r="E328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7344,9 +6854,7 @@
       <c r="D329" t="n">
         <v>0</v>
       </c>
-      <c r="E329" t="n">
-        <v>0</v>
-      </c>
+      <c r="E329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7365,9 +6873,7 @@
       <c r="D330" t="n">
         <v>0</v>
       </c>
-      <c r="E330" t="n">
-        <v>0</v>
-      </c>
+      <c r="E330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7386,9 +6892,7 @@
       <c r="D331" t="n">
         <v>0</v>
       </c>
-      <c r="E331" t="n">
-        <v>0</v>
-      </c>
+      <c r="E331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7407,9 +6911,7 @@
       <c r="D332" t="n">
         <v>0</v>
       </c>
-      <c r="E332" t="n">
-        <v>0</v>
-      </c>
+      <c r="E332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7428,9 +6930,7 @@
       <c r="D333" t="n">
         <v>0</v>
       </c>
-      <c r="E333" t="n">
-        <v>0</v>
-      </c>
+      <c r="E333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7449,9 +6949,7 @@
       <c r="D334" t="n">
         <v>0</v>
       </c>
-      <c r="E334" t="n">
-        <v>0</v>
-      </c>
+      <c r="E334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7470,9 +6968,7 @@
       <c r="D335" t="n">
         <v>0</v>
       </c>
-      <c r="E335" t="n">
-        <v>0</v>
-      </c>
+      <c r="E335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7491,9 +6987,7 @@
       <c r="D336" t="n">
         <v>0</v>
       </c>
-      <c r="E336" t="n">
-        <v>0</v>
-      </c>
+      <c r="E336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7512,9 +7006,7 @@
       <c r="D337" t="n">
         <v>0</v>
       </c>
-      <c r="E337" t="n">
-        <v>0</v>
-      </c>
+      <c r="E337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7533,9 +7025,7 @@
       <c r="D338" t="n">
         <v>0</v>
       </c>
-      <c r="E338" t="n">
-        <v>0</v>
-      </c>
+      <c r="E338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7554,9 +7044,7 @@
       <c r="D339" t="n">
         <v>0</v>
       </c>
-      <c r="E339" t="n">
-        <v>0</v>
-      </c>
+      <c r="E339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7575,9 +7063,7 @@
       <c r="D340" t="n">
         <v>0</v>
       </c>
-      <c r="E340" t="n">
-        <v>0</v>
-      </c>
+      <c r="E340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7596,9 +7082,7 @@
       <c r="D341" t="n">
         <v>0</v>
       </c>
-      <c r="E341" t="n">
-        <v>0</v>
-      </c>
+      <c r="E341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7617,9 +7101,7 @@
       <c r="D342" t="n">
         <v>0</v>
       </c>
-      <c r="E342" t="n">
-        <v>0</v>
-      </c>
+      <c r="E342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7638,9 +7120,7 @@
       <c r="D343" t="n">
         <v>0</v>
       </c>
-      <c r="E343" t="n">
-        <v>0</v>
-      </c>
+      <c r="E343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -7659,9 +7139,7 @@
       <c r="D344" t="n">
         <v>0</v>
       </c>
-      <c r="E344" t="n">
-        <v>0</v>
-      </c>
+      <c r="E344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -7680,9 +7158,7 @@
       <c r="D345" t="n">
         <v>0</v>
       </c>
-      <c r="E345" t="n">
-        <v>0</v>
-      </c>
+      <c r="E345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -7701,9 +7177,7 @@
       <c r="D346" t="n">
         <v>0</v>
       </c>
-      <c r="E346" t="n">
-        <v>0</v>
-      </c>
+      <c r="E346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -7722,9 +7196,7 @@
       <c r="D347" t="n">
         <v>0</v>
       </c>
-      <c r="E347" t="n">
-        <v>0</v>
-      </c>
+      <c r="E347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -7743,9 +7215,7 @@
       <c r="D348" t="n">
         <v>0</v>
       </c>
-      <c r="E348" t="n">
-        <v>0</v>
-      </c>
+      <c r="E348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -7764,9 +7234,7 @@
       <c r="D349" t="n">
         <v>0</v>
       </c>
-      <c r="E349" t="n">
-        <v>0</v>
-      </c>
+      <c r="E349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -7785,9 +7253,7 @@
       <c r="D350" t="n">
         <v>0</v>
       </c>
-      <c r="E350" t="n">
-        <v>0</v>
-      </c>
+      <c r="E350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -7806,9 +7272,7 @@
       <c r="D351" t="n">
         <v>0</v>
       </c>
-      <c r="E351" t="n">
-        <v>0</v>
-      </c>
+      <c r="E351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -7827,9 +7291,7 @@
       <c r="D352" t="n">
         <v>0</v>
       </c>
-      <c r="E352" t="n">
-        <v>0</v>
-      </c>
+      <c r="E352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -7848,9 +7310,7 @@
       <c r="D353" t="n">
         <v>0</v>
       </c>
-      <c r="E353" t="n">
-        <v>0</v>
-      </c>
+      <c r="E353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -7869,9 +7329,7 @@
       <c r="D354" t="n">
         <v>0</v>
       </c>
-      <c r="E354" t="n">
-        <v>0</v>
-      </c>
+      <c r="E354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -7890,9 +7348,7 @@
       <c r="D355" t="n">
         <v>0</v>
       </c>
-      <c r="E355" t="n">
-        <v>0</v>
-      </c>
+      <c r="E355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -7911,9 +7367,7 @@
       <c r="D356" t="n">
         <v>0</v>
       </c>
-      <c r="E356" t="n">
-        <v>0</v>
-      </c>
+      <c r="E356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -7932,9 +7386,7 @@
       <c r="D357" t="n">
         <v>0</v>
       </c>
-      <c r="E357" t="n">
-        <v>0</v>
-      </c>
+      <c r="E357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -7953,9 +7405,7 @@
       <c r="D358" t="n">
         <v>0</v>
       </c>
-      <c r="E358" t="n">
-        <v>0</v>
-      </c>
+      <c r="E358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -7974,9 +7424,7 @@
       <c r="D359" t="n">
         <v>0</v>
       </c>
-      <c r="E359" t="n">
-        <v>0</v>
-      </c>
+      <c r="E359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -7995,9 +7443,7 @@
       <c r="D360" t="n">
         <v>0</v>
       </c>
-      <c r="E360" t="n">
-        <v>0</v>
-      </c>
+      <c r="E360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8016,9 +7462,7 @@
       <c r="D361" t="n">
         <v>0</v>
       </c>
-      <c r="E361" t="n">
-        <v>0</v>
-      </c>
+      <c r="E361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8037,9 +7481,7 @@
       <c r="D362" t="n">
         <v>0</v>
       </c>
-      <c r="E362" t="n">
-        <v>0</v>
-      </c>
+      <c r="E362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8058,9 +7500,7 @@
       <c r="D363" t="n">
         <v>0</v>
       </c>
-      <c r="E363" t="n">
-        <v>0</v>
-      </c>
+      <c r="E363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8079,9 +7519,7 @@
       <c r="D364" t="n">
         <v>0</v>
       </c>
-      <c r="E364" t="n">
-        <v>0</v>
-      </c>
+      <c r="E364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8100,9 +7538,7 @@
       <c r="D365" t="n">
         <v>0</v>
       </c>
-      <c r="E365" t="n">
-        <v>0</v>
-      </c>
+      <c r="E365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8121,9 +7557,7 @@
       <c r="D366" t="n">
         <v>0</v>
       </c>
-      <c r="E366" t="n">
-        <v>0</v>
-      </c>
+      <c r="E366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -8142,9 +7576,7 @@
       <c r="D367" t="n">
         <v>0</v>
       </c>
-      <c r="E367" t="n">
-        <v>0</v>
-      </c>
+      <c r="E367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -8163,9 +7595,7 @@
       <c r="D368" t="n">
         <v>0</v>
       </c>
-      <c r="E368" t="n">
-        <v>0</v>
-      </c>
+      <c r="E368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -8184,9 +7614,7 @@
       <c r="D369" t="n">
         <v>0</v>
       </c>
-      <c r="E369" t="n">
-        <v>0</v>
-      </c>
+      <c r="E369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -8205,9 +7633,7 @@
       <c r="D370" t="n">
         <v>0</v>
       </c>
-      <c r="E370" t="n">
-        <v>0</v>
-      </c>
+      <c r="E370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -8226,9 +7652,7 @@
       <c r="D371" t="n">
         <v>0</v>
       </c>
-      <c r="E371" t="n">
-        <v>0</v>
-      </c>
+      <c r="E371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -8247,9 +7671,7 @@
       <c r="D372" t="n">
         <v>0</v>
       </c>
-      <c r="E372" t="n">
-        <v>0</v>
-      </c>
+      <c r="E372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -8268,9 +7690,7 @@
       <c r="D373" t="n">
         <v>0</v>
       </c>
-      <c r="E373" t="n">
-        <v>0</v>
-      </c>
+      <c r="E373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -8289,9 +7709,7 @@
       <c r="D374" t="n">
         <v>0</v>
       </c>
-      <c r="E374" t="n">
-        <v>0</v>
-      </c>
+      <c r="E374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -8310,9 +7728,7 @@
       <c r="D375" t="n">
         <v>0</v>
       </c>
-      <c r="E375" t="n">
-        <v>0</v>
-      </c>
+      <c r="E375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -8331,9 +7747,7 @@
       <c r="D376" t="n">
         <v>0</v>
       </c>
-      <c r="E376" t="n">
-        <v>0</v>
-      </c>
+      <c r="E376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -8352,9 +7766,7 @@
       <c r="D377" t="n">
         <v>0</v>
       </c>
-      <c r="E377" t="n">
-        <v>0</v>
-      </c>
+      <c r="E377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -8373,9 +7785,7 @@
       <c r="D378" t="n">
         <v>0</v>
       </c>
-      <c r="E378" t="n">
-        <v>0</v>
-      </c>
+      <c r="E378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -8394,9 +7804,7 @@
       <c r="D379" t="n">
         <v>0</v>
       </c>
-      <c r="E379" t="n">
-        <v>0</v>
-      </c>
+      <c r="E379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -8415,9 +7823,7 @@
       <c r="D380" t="n">
         <v>0</v>
       </c>
-      <c r="E380" t="n">
-        <v>0</v>
-      </c>
+      <c r="E380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -8436,9 +7842,7 @@
       <c r="D381" t="n">
         <v>0</v>
       </c>
-      <c r="E381" t="n">
-        <v>0</v>
-      </c>
+      <c r="E381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -8457,9 +7861,7 @@
       <c r="D382" t="n">
         <v>0</v>
       </c>
-      <c r="E382" t="n">
-        <v>0</v>
-      </c>
+      <c r="E382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -8478,9 +7880,7 @@
       <c r="D383" t="n">
         <v>0</v>
       </c>
-      <c r="E383" t="n">
-        <v>0</v>
-      </c>
+      <c r="E383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -8499,9 +7899,7 @@
       <c r="D384" t="n">
         <v>0</v>
       </c>
-      <c r="E384" t="n">
-        <v>0</v>
-      </c>
+      <c r="E384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -8520,9 +7918,7 @@
       <c r="D385" t="n">
         <v>0</v>
       </c>
-      <c r="E385" t="n">
-        <v>0</v>
-      </c>
+      <c r="E385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -8541,9 +7937,7 @@
       <c r="D386" t="n">
         <v>0</v>
       </c>
-      <c r="E386" t="n">
-        <v>0</v>
-      </c>
+      <c r="E386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -8562,9 +7956,7 @@
       <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="n">
-        <v>0</v>
-      </c>
+      <c r="E387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -8583,9 +7975,7 @@
       <c r="D388" t="n">
         <v>0</v>
       </c>
-      <c r="E388" t="n">
-        <v>0</v>
-      </c>
+      <c r="E388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8604,9 +7994,7 @@
       <c r="D389" t="n">
         <v>0</v>
       </c>
-      <c r="E389" t="n">
-        <v>0</v>
-      </c>
+      <c r="E389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -8625,9 +8013,7 @@
       <c r="D390" t="n">
         <v>0</v>
       </c>
-      <c r="E390" t="n">
-        <v>0</v>
-      </c>
+      <c r="E390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -8646,9 +8032,7 @@
       <c r="D391" t="n">
         <v>0</v>
       </c>
-      <c r="E391" t="n">
-        <v>0</v>
-      </c>
+      <c r="E391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -8667,9 +8051,7 @@
       <c r="D392" t="n">
         <v>0</v>
       </c>
-      <c r="E392" t="n">
-        <v>0</v>
-      </c>
+      <c r="E392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -8688,9 +8070,7 @@
       <c r="D393" t="n">
         <v>0</v>
       </c>
-      <c r="E393" t="n">
-        <v>0</v>
-      </c>
+      <c r="E393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -8709,9 +8089,7 @@
       <c r="D394" t="n">
         <v>0</v>
       </c>
-      <c r="E394" t="n">
-        <v>0</v>
-      </c>
+      <c r="E394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -8730,9 +8108,7 @@
       <c r="D395" t="n">
         <v>0</v>
       </c>
-      <c r="E395" t="n">
-        <v>0</v>
-      </c>
+      <c r="E395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -8751,9 +8127,7 @@
       <c r="D396" t="n">
         <v>0</v>
       </c>
-      <c r="E396" t="n">
-        <v>0</v>
-      </c>
+      <c r="E396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -8772,9 +8146,7 @@
       <c r="D397" t="n">
         <v>0</v>
       </c>
-      <c r="E397" t="n">
-        <v>0</v>
-      </c>
+      <c r="E397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -8793,9 +8165,7 @@
       <c r="D398" t="n">
         <v>0</v>
       </c>
-      <c r="E398" t="n">
-        <v>0</v>
-      </c>
+      <c r="E398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -8814,9 +8184,7 @@
       <c r="D399" t="n">
         <v>0</v>
       </c>
-      <c r="E399" t="n">
-        <v>0</v>
-      </c>
+      <c r="E399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -8835,9 +8203,7 @@
       <c r="D400" t="n">
         <v>0</v>
       </c>
-      <c r="E400" t="n">
-        <v>0</v>
-      </c>
+      <c r="E400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -8856,9 +8222,7 @@
       <c r="D401" t="n">
         <v>0</v>
       </c>
-      <c r="E401" t="n">
-        <v>0</v>
-      </c>
+      <c r="E401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -8877,9 +8241,7 @@
       <c r="D402" t="n">
         <v>0</v>
       </c>
-      <c r="E402" t="n">
-        <v>0</v>
-      </c>
+      <c r="E402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -8898,9 +8260,7 @@
       <c r="D403" t="n">
         <v>0</v>
       </c>
-      <c r="E403" t="n">
-        <v>0</v>
-      </c>
+      <c r="E403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -8919,9 +8279,7 @@
       <c r="D404" t="n">
         <v>0</v>
       </c>
-      <c r="E404" t="n">
-        <v>0</v>
-      </c>
+      <c r="E404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -8940,9 +8298,7 @@
       <c r="D405" t="n">
         <v>0</v>
       </c>
-      <c r="E405" t="n">
-        <v>0</v>
-      </c>
+      <c r="E405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -8961,9 +8317,7 @@
       <c r="D406" t="n">
         <v>0</v>
       </c>
-      <c r="E406" t="n">
-        <v>0</v>
-      </c>
+      <c r="E406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -8982,9 +8336,7 @@
       <c r="D407" t="n">
         <v>0</v>
       </c>
-      <c r="E407" t="n">
-        <v>0</v>
-      </c>
+      <c r="E407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -9003,9 +8355,7 @@
       <c r="D408" t="n">
         <v>0</v>
       </c>
-      <c r="E408" t="n">
-        <v>0</v>
-      </c>
+      <c r="E408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -9024,9 +8374,7 @@
       <c r="D409" t="n">
         <v>0</v>
       </c>
-      <c r="E409" t="n">
-        <v>0</v>
-      </c>
+      <c r="E409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -9045,9 +8393,7 @@
       <c r="D410" t="n">
         <v>0</v>
       </c>
-      <c r="E410" t="n">
-        <v>0</v>
-      </c>
+      <c r="E410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -9066,9 +8412,7 @@
       <c r="D411" t="n">
         <v>0</v>
       </c>
-      <c r="E411" t="n">
-        <v>0</v>
-      </c>
+      <c r="E411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -9087,9 +8431,7 @@
       <c r="D412" t="n">
         <v>0</v>
       </c>
-      <c r="E412" t="n">
-        <v>0</v>
-      </c>
+      <c r="E412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -9108,9 +8450,7 @@
       <c r="D413" t="n">
         <v>0</v>
       </c>
-      <c r="E413" t="n">
-        <v>0</v>
-      </c>
+      <c r="E413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -9129,9 +8469,7 @@
       <c r="D414" t="n">
         <v>0</v>
       </c>
-      <c r="E414" t="n">
-        <v>0</v>
-      </c>
+      <c r="E414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -9150,9 +8488,7 @@
       <c r="D415" t="n">
         <v>0</v>
       </c>
-      <c r="E415" t="n">
-        <v>0</v>
-      </c>
+      <c r="E415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -9171,9 +8507,7 @@
       <c r="D416" t="n">
         <v>0</v>
       </c>
-      <c r="E416" t="n">
-        <v>0</v>
-      </c>
+      <c r="E416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -9192,9 +8526,7 @@
       <c r="D417" t="n">
         <v>0</v>
       </c>
-      <c r="E417" t="n">
-        <v>0</v>
-      </c>
+      <c r="E417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -9213,9 +8545,7 @@
       <c r="D418" t="n">
         <v>0</v>
       </c>
-      <c r="E418" t="n">
-        <v>0</v>
-      </c>
+      <c r="E418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -9234,9 +8564,7 @@
       <c r="D419" t="n">
         <v>0</v>
       </c>
-      <c r="E419" t="n">
-        <v>0</v>
-      </c>
+      <c r="E419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -9255,9 +8583,7 @@
       <c r="D420" t="n">
         <v>0</v>
       </c>
-      <c r="E420" t="n">
-        <v>0</v>
-      </c>
+      <c r="E420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -9276,9 +8602,7 @@
       <c r="D421" t="n">
         <v>0</v>
       </c>
-      <c r="E421" t="n">
-        <v>0</v>
-      </c>
+      <c r="E421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -9297,9 +8621,7 @@
       <c r="D422" t="n">
         <v>0</v>
       </c>
-      <c r="E422" t="n">
-        <v>0</v>
-      </c>
+      <c r="E422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -9318,9 +8640,7 @@
       <c r="D423" t="n">
         <v>0</v>
       </c>
-      <c r="E423" t="n">
-        <v>0</v>
-      </c>
+      <c r="E423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -9339,9 +8659,7 @@
       <c r="D424" t="n">
         <v>0</v>
       </c>
-      <c r="E424" t="n">
-        <v>0</v>
-      </c>
+      <c r="E424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -9360,9 +8678,7 @@
       <c r="D425" t="n">
         <v>0</v>
       </c>
-      <c r="E425" t="n">
-        <v>0</v>
-      </c>
+      <c r="E425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -9381,9 +8697,7 @@
       <c r="D426" t="n">
         <v>0</v>
       </c>
-      <c r="E426" t="n">
-        <v>0</v>
-      </c>
+      <c r="E426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -9402,9 +8716,7 @@
       <c r="D427" t="n">
         <v>0</v>
       </c>
-      <c r="E427" t="n">
-        <v>0</v>
-      </c>
+      <c r="E427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -9423,9 +8735,7 @@
       <c r="D428" t="n">
         <v>0</v>
       </c>
-      <c r="E428" t="n">
-        <v>0</v>
-      </c>
+      <c r="E428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -9444,9 +8754,7 @@
       <c r="D429" t="n">
         <v>0</v>
       </c>
-      <c r="E429" t="n">
-        <v>0</v>
-      </c>
+      <c r="E429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9465,9 +8773,7 @@
       <c r="D430" t="n">
         <v>0</v>
       </c>
-      <c r="E430" t="n">
-        <v>0</v>
-      </c>
+      <c r="E430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -9486,9 +8792,7 @@
       <c r="D431" t="n">
         <v>0</v>
       </c>
-      <c r="E431" t="n">
-        <v>0</v>
-      </c>
+      <c r="E431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -9507,9 +8811,7 @@
       <c r="D432" t="n">
         <v>0</v>
       </c>
-      <c r="E432" t="n">
-        <v>0</v>
-      </c>
+      <c r="E432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -9528,9 +8830,7 @@
       <c r="D433" t="n">
         <v>0</v>
       </c>
-      <c r="E433" t="n">
-        <v>0</v>
-      </c>
+      <c r="E433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -9549,9 +8849,7 @@
       <c r="D434" t="n">
         <v>0</v>
       </c>
-      <c r="E434" t="n">
-        <v>0</v>
-      </c>
+      <c r="E434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -9570,9 +8868,7 @@
       <c r="D435" t="n">
         <v>0</v>
       </c>
-      <c r="E435" t="n">
-        <v>0</v>
-      </c>
+      <c r="E435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -9591,9 +8887,7 @@
       <c r="D436" t="n">
         <v>0</v>
       </c>
-      <c r="E436" t="n">
-        <v>0</v>
-      </c>
+      <c r="E436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -9612,9 +8906,7 @@
       <c r="D437" t="n">
         <v>0</v>
       </c>
-      <c r="E437" t="n">
-        <v>0</v>
-      </c>
+      <c r="E437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -9633,9 +8925,7 @@
       <c r="D438" t="n">
         <v>0</v>
       </c>
-      <c r="E438" t="n">
-        <v>0</v>
-      </c>
+      <c r="E438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -9654,9 +8944,7 @@
       <c r="D439" t="n">
         <v>0</v>
       </c>
-      <c r="E439" t="n">
-        <v>0</v>
-      </c>
+      <c r="E439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -9675,9 +8963,7 @@
       <c r="D440" t="n">
         <v>0</v>
       </c>
-      <c r="E440" t="n">
-        <v>0</v>
-      </c>
+      <c r="E440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -9696,9 +8982,7 @@
       <c r="D441" t="n">
         <v>0</v>
       </c>
-      <c r="E441" t="n">
-        <v>0</v>
-      </c>
+      <c r="E441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -9717,9 +9001,7 @@
       <c r="D442" t="n">
         <v>0</v>
       </c>
-      <c r="E442" t="n">
-        <v>0</v>
-      </c>
+      <c r="E442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -9738,9 +9020,7 @@
       <c r="D443" t="n">
         <v>0</v>
       </c>
-      <c r="E443" t="n">
-        <v>0</v>
-      </c>
+      <c r="E443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -9759,9 +9039,7 @@
       <c r="D444" t="n">
         <v>0</v>
       </c>
-      <c r="E444" t="n">
-        <v>0</v>
-      </c>
+      <c r="E444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -9780,9 +9058,7 @@
       <c r="D445" t="n">
         <v>0</v>
       </c>
-      <c r="E445" t="n">
-        <v>0</v>
-      </c>
+      <c r="E445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -9801,9 +9077,7 @@
       <c r="D446" t="n">
         <v>0</v>
       </c>
-      <c r="E446" t="n">
-        <v>0</v>
-      </c>
+      <c r="E446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -9822,9 +9096,7 @@
       <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="n">
-        <v>0</v>
-      </c>
+      <c r="E447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -9843,9 +9115,7 @@
       <c r="D448" t="n">
         <v>0</v>
       </c>
-      <c r="E448" t="n">
-        <v>0</v>
-      </c>
+      <c r="E448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -9864,9 +9134,7 @@
       <c r="D449" t="n">
         <v>0</v>
       </c>
-      <c r="E449" t="n">
-        <v>0</v>
-      </c>
+      <c r="E449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -9885,9 +9153,7 @@
       <c r="D450" t="n">
         <v>0</v>
       </c>
-      <c r="E450" t="n">
-        <v>0</v>
-      </c>
+      <c r="E450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -9906,9 +9172,7 @@
       <c r="D451" t="n">
         <v>0</v>
       </c>
-      <c r="E451" t="n">
-        <v>0</v>
-      </c>
+      <c r="E451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -9927,9 +9191,7 @@
       <c r="D452" t="n">
         <v>0</v>
       </c>
-      <c r="E452" t="n">
-        <v>0</v>
-      </c>
+      <c r="E452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -9948,9 +9210,7 @@
       <c r="D453" t="n">
         <v>0</v>
       </c>
-      <c r="E453" t="n">
-        <v>0</v>
-      </c>
+      <c r="E453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -9969,9 +9229,7 @@
       <c r="D454" t="n">
         <v>0</v>
       </c>
-      <c r="E454" t="n">
-        <v>0</v>
-      </c>
+      <c r="E454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -9990,9 +9248,7 @@
       <c r="D455" t="n">
         <v>0</v>
       </c>
-      <c r="E455" t="n">
-        <v>0</v>
-      </c>
+      <c r="E455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -10011,9 +9267,7 @@
       <c r="D456" t="n">
         <v>0</v>
       </c>
-      <c r="E456" t="n">
-        <v>0</v>
-      </c>
+      <c r="E456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -10032,9 +9286,7 @@
       <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="n">
-        <v>0</v>
-      </c>
+      <c r="E457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -10053,9 +9305,7 @@
       <c r="D458" t="n">
         <v>0</v>
       </c>
-      <c r="E458" t="n">
-        <v>0</v>
-      </c>
+      <c r="E458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -10074,9 +9324,7 @@
       <c r="D459" t="n">
         <v>0</v>
       </c>
-      <c r="E459" t="n">
-        <v>0</v>
-      </c>
+      <c r="E459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -10095,9 +9343,7 @@
       <c r="D460" t="n">
         <v>0</v>
       </c>
-      <c r="E460" t="n">
-        <v>0</v>
-      </c>
+      <c r="E460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -10116,9 +9362,7 @@
       <c r="D461" t="n">
         <v>0</v>
       </c>
-      <c r="E461" t="n">
-        <v>0</v>
-      </c>
+      <c r="E461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -10137,9 +9381,7 @@
       <c r="D462" t="n">
         <v>0</v>
       </c>
-      <c r="E462" t="n">
-        <v>0</v>
-      </c>
+      <c r="E462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -10158,9 +9400,7 @@
       <c r="D463" t="n">
         <v>0</v>
       </c>
-      <c r="E463" t="n">
-        <v>0</v>
-      </c>
+      <c r="E463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -10179,9 +9419,7 @@
       <c r="D464" t="n">
         <v>0</v>
       </c>
-      <c r="E464" t="n">
-        <v>0</v>
-      </c>
+      <c r="E464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -10200,9 +9438,7 @@
       <c r="D465" t="n">
         <v>0</v>
       </c>
-      <c r="E465" t="n">
-        <v>0</v>
-      </c>
+      <c r="E465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -10221,9 +9457,7 @@
       <c r="D466" t="n">
         <v>0</v>
       </c>
-      <c r="E466" t="n">
-        <v>0</v>
-      </c>
+      <c r="E466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -10242,9 +9476,7 @@
       <c r="D467" t="n">
         <v>0</v>
       </c>
-      <c r="E467" t="n">
-        <v>0</v>
-      </c>
+      <c r="E467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -10263,9 +9495,7 @@
       <c r="D468" t="n">
         <v>0</v>
       </c>
-      <c r="E468" t="n">
-        <v>0</v>
-      </c>
+      <c r="E468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -10284,9 +9514,7 @@
       <c r="D469" t="n">
         <v>0</v>
       </c>
-      <c r="E469" t="n">
-        <v>0</v>
-      </c>
+      <c r="E469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -10305,9 +9533,7 @@
       <c r="D470" t="n">
         <v>0</v>
       </c>
-      <c r="E470" t="n">
-        <v>0</v>
-      </c>
+      <c r="E470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -10326,9 +9552,7 @@
       <c r="D471" t="n">
         <v>0</v>
       </c>
-      <c r="E471" t="n">
-        <v>0</v>
-      </c>
+      <c r="E471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -10347,9 +9571,7 @@
       <c r="D472" t="n">
         <v>0</v>
       </c>
-      <c r="E472" t="n">
-        <v>0</v>
-      </c>
+      <c r="E472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -10368,9 +9590,7 @@
       <c r="D473" t="n">
         <v>0</v>
       </c>
-      <c r="E473" t="n">
-        <v>0</v>
-      </c>
+      <c r="E473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -10389,9 +9609,7 @@
       <c r="D474" t="n">
         <v>0</v>
       </c>
-      <c r="E474" t="n">
-        <v>0</v>
-      </c>
+      <c r="E474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -10410,9 +9628,7 @@
       <c r="D475" t="n">
         <v>0</v>
       </c>
-      <c r="E475" t="n">
-        <v>0</v>
-      </c>
+      <c r="E475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -10431,9 +9647,7 @@
       <c r="D476" t="n">
         <v>0</v>
       </c>
-      <c r="E476" t="n">
-        <v>0</v>
-      </c>
+      <c r="E476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -10452,9 +9666,7 @@
       <c r="D477" t="n">
         <v>0</v>
       </c>
-      <c r="E477" t="n">
-        <v>0</v>
-      </c>
+      <c r="E477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -10473,9 +9685,7 @@
       <c r="D478" t="n">
         <v>0</v>
       </c>
-      <c r="E478" t="n">
-        <v>0</v>
-      </c>
+      <c r="E478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -10494,9 +9704,7 @@
       <c r="D479" t="n">
         <v>0</v>
       </c>
-      <c r="E479" t="n">
-        <v>0</v>
-      </c>
+      <c r="E479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -10515,9 +9723,7 @@
       <c r="D480" t="n">
         <v>0</v>
       </c>
-      <c r="E480" t="n">
-        <v>0</v>
-      </c>
+      <c r="E480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -10536,9 +9742,7 @@
       <c r="D481" t="n">
         <v>0</v>
       </c>
-      <c r="E481" t="n">
-        <v>0</v>
-      </c>
+      <c r="E481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -10557,9 +9761,7 @@
       <c r="D482" t="n">
         <v>0</v>
       </c>
-      <c r="E482" t="n">
-        <v>0</v>
-      </c>
+      <c r="E482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -10578,9 +9780,7 @@
       <c r="D483" t="n">
         <v>0</v>
       </c>
-      <c r="E483" t="n">
-        <v>0</v>
-      </c>
+      <c r="E483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -10599,9 +9799,7 @@
       <c r="D484" t="n">
         <v>0</v>
       </c>
-      <c r="E484" t="n">
-        <v>0</v>
-      </c>
+      <c r="E484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -10620,9 +9818,7 @@
       <c r="D485" t="n">
         <v>0</v>
       </c>
-      <c r="E485" t="n">
-        <v>0</v>
-      </c>
+      <c r="E485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -10641,9 +9837,7 @@
       <c r="D486" t="n">
         <v>0</v>
       </c>
-      <c r="E486" t="n">
-        <v>0</v>
-      </c>
+      <c r="E486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -10662,9 +9856,7 @@
       <c r="D487" t="n">
         <v>0</v>
       </c>
-      <c r="E487" t="n">
-        <v>0</v>
-      </c>
+      <c r="E487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -10683,9 +9875,7 @@
       <c r="D488" t="n">
         <v>0</v>
       </c>
-      <c r="E488" t="n">
-        <v>0</v>
-      </c>
+      <c r="E488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -10704,9 +9894,7 @@
       <c r="D489" t="n">
         <v>0</v>
       </c>
-      <c r="E489" t="n">
-        <v>0</v>
-      </c>
+      <c r="E489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -10725,9 +9913,7 @@
       <c r="D490" t="n">
         <v>0</v>
       </c>
-      <c r="E490" t="n">
-        <v>0</v>
-      </c>
+      <c r="E490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -10746,9 +9932,7 @@
       <c r="D491" t="n">
         <v>0</v>
       </c>
-      <c r="E491" t="n">
-        <v>0</v>
-      </c>
+      <c r="E491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -10767,9 +9951,7 @@
       <c r="D492" t="n">
         <v>0</v>
       </c>
-      <c r="E492" t="n">
-        <v>0</v>
-      </c>
+      <c r="E492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -10788,9 +9970,7 @@
       <c r="D493" t="n">
         <v>0</v>
       </c>
-      <c r="E493" t="n">
-        <v>0</v>
-      </c>
+      <c r="E493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -10809,9 +9989,7 @@
       <c r="D494" t="n">
         <v>0</v>
       </c>
-      <c r="E494" t="n">
-        <v>0</v>
-      </c>
+      <c r="E494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -10830,9 +10008,7 @@
       <c r="D495" t="n">
         <v>0</v>
       </c>
-      <c r="E495" t="n">
-        <v>0</v>
-      </c>
+      <c r="E495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -10851,9 +10027,7 @@
       <c r="D496" t="n">
         <v>0</v>
       </c>
-      <c r="E496" t="n">
-        <v>0</v>
-      </c>
+      <c r="E496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -10872,9 +10046,7 @@
       <c r="D497" t="n">
         <v>0</v>
       </c>
-      <c r="E497" t="n">
-        <v>0</v>
-      </c>
+      <c r="E497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -10893,9 +10065,7 @@
       <c r="D498" t="n">
         <v>0</v>
       </c>
-      <c r="E498" t="n">
-        <v>0</v>
-      </c>
+      <c r="E498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -10914,9 +10084,7 @@
       <c r="D499" t="n">
         <v>0</v>
       </c>
-      <c r="E499" t="n">
-        <v>0</v>
-      </c>
+      <c r="E499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -10935,9 +10103,7 @@
       <c r="D500" t="n">
         <v>0</v>
       </c>
-      <c r="E500" t="n">
-        <v>0</v>
-      </c>
+      <c r="E500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -10956,9 +10122,7 @@
       <c r="D501" t="n">
         <v>0</v>
       </c>
-      <c r="E501" t="n">
-        <v>0</v>
-      </c>
+      <c r="E501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -10977,9 +10141,7 @@
       <c r="D502" t="n">
         <v>0</v>
       </c>
-      <c r="E502" t="n">
-        <v>0</v>
-      </c>
+      <c r="E502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -10998,9 +10160,7 @@
       <c r="D503" t="n">
         <v>0</v>
       </c>
-      <c r="E503" t="n">
-        <v>0</v>
-      </c>
+      <c r="E503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -11019,9 +10179,7 @@
       <c r="D504" t="n">
         <v>0</v>
       </c>
-      <c r="E504" t="n">
-        <v>0</v>
-      </c>
+      <c r="E504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -11040,9 +10198,7 @@
       <c r="D505" t="n">
         <v>0</v>
       </c>
-      <c r="E505" t="n">
-        <v>0</v>
-      </c>
+      <c r="E505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -11061,9 +10217,7 @@
       <c r="D506" t="n">
         <v>0</v>
       </c>
-      <c r="E506" t="n">
-        <v>0</v>
-      </c>
+      <c r="E506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -11082,9 +10236,7 @@
       <c r="D507" t="n">
         <v>0</v>
       </c>
-      <c r="E507" t="n">
-        <v>0</v>
-      </c>
+      <c r="E507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -11103,9 +10255,7 @@
       <c r="D508" t="n">
         <v>0</v>
       </c>
-      <c r="E508" t="n">
-        <v>0</v>
-      </c>
+      <c r="E508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -11124,9 +10274,7 @@
       <c r="D509" t="n">
         <v>0</v>
       </c>
-      <c r="E509" t="n">
-        <v>0</v>
-      </c>
+      <c r="E509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -11145,9 +10293,7 @@
       <c r="D510" t="n">
         <v>0</v>
       </c>
-      <c r="E510" t="n">
-        <v>0</v>
-      </c>
+      <c r="E510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -11166,9 +10312,7 @@
       <c r="D511" t="n">
         <v>0</v>
       </c>
-      <c r="E511" t="n">
-        <v>0</v>
-      </c>
+      <c r="E511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -11187,9 +10331,7 @@
       <c r="D512" t="n">
         <v>0</v>
       </c>
-      <c r="E512" t="n">
-        <v>0</v>
-      </c>
+      <c r="E512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -11208,9 +10350,7 @@
       <c r="D513" t="n">
         <v>0</v>
       </c>
-      <c r="E513" t="n">
-        <v>0</v>
-      </c>
+      <c r="E513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -11229,9 +10369,7 @@
       <c r="D514" t="n">
         <v>0</v>
       </c>
-      <c r="E514" t="n">
-        <v>0</v>
-      </c>
+      <c r="E514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -11250,9 +10388,7 @@
       <c r="D515" t="n">
         <v>0</v>
       </c>
-      <c r="E515" t="n">
-        <v>0</v>
-      </c>
+      <c r="E515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -11271,9 +10407,7 @@
       <c r="D516" t="n">
         <v>0</v>
       </c>
-      <c r="E516" t="n">
-        <v>0</v>
-      </c>
+      <c r="E516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -11292,9 +10426,7 @@
       <c r="D517" t="n">
         <v>0</v>
       </c>
-      <c r="E517" t="n">
-        <v>0</v>
-      </c>
+      <c r="E517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -11313,9 +10445,7 @@
       <c r="D518" t="n">
         <v>0</v>
       </c>
-      <c r="E518" t="n">
-        <v>0</v>
-      </c>
+      <c r="E518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -11334,9 +10464,7 @@
       <c r="D519" t="n">
         <v>0</v>
       </c>
-      <c r="E519" t="n">
-        <v>0</v>
-      </c>
+      <c r="E519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -11355,9 +10483,7 @@
       <c r="D520" t="n">
         <v>0</v>
       </c>
-      <c r="E520" t="n">
-        <v>0</v>
-      </c>
+      <c r="E520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -11376,9 +10502,7 @@
       <c r="D521" t="n">
         <v>0</v>
       </c>
-      <c r="E521" t="n">
-        <v>0</v>
-      </c>
+      <c r="E521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -11397,9 +10521,7 @@
       <c r="D522" t="n">
         <v>0</v>
       </c>
-      <c r="E522" t="n">
-        <v>0</v>
-      </c>
+      <c r="E522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -11418,9 +10540,7 @@
       <c r="D523" t="n">
         <v>0</v>
       </c>
-      <c r="E523" t="n">
-        <v>0</v>
-      </c>
+      <c r="E523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -11439,9 +10559,7 @@
       <c r="D524" t="n">
         <v>0</v>
       </c>
-      <c r="E524" t="n">
-        <v>0</v>
-      </c>
+      <c r="E524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -11460,9 +10578,7 @@
       <c r="D525" t="n">
         <v>0</v>
       </c>
-      <c r="E525" t="n">
-        <v>0</v>
-      </c>
+      <c r="E525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -11481,9 +10597,7 @@
       <c r="D526" t="n">
         <v>0</v>
       </c>
-      <c r="E526" t="n">
-        <v>0</v>
-      </c>
+      <c r="E526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -11502,9 +10616,7 @@
       <c r="D527" t="n">
         <v>0</v>
       </c>
-      <c r="E527" t="n">
-        <v>0</v>
-      </c>
+      <c r="E527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -11523,9 +10635,7 @@
       <c r="D528" t="n">
         <v>0</v>
       </c>
-      <c r="E528" t="n">
-        <v>0</v>
-      </c>
+      <c r="E528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -11544,9 +10654,7 @@
       <c r="D529" t="n">
         <v>0</v>
       </c>
-      <c r="E529" t="n">
-        <v>0</v>
-      </c>
+      <c r="E529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -11565,9 +10673,7 @@
       <c r="D530" t="n">
         <v>0</v>
       </c>
-      <c r="E530" t="n">
-        <v>0</v>
-      </c>
+      <c r="E530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -11586,9 +10692,7 @@
       <c r="D531" t="n">
         <v>0</v>
       </c>
-      <c r="E531" t="n">
-        <v>0</v>
-      </c>
+      <c r="E531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -11607,9 +10711,7 @@
       <c r="D532" t="n">
         <v>0</v>
       </c>
-      <c r="E532" t="n">
-        <v>0</v>
-      </c>
+      <c r="E532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -11628,9 +10730,7 @@
       <c r="D533" t="n">
         <v>0</v>
       </c>
-      <c r="E533" t="n">
-        <v>0</v>
-      </c>
+      <c r="E533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -11649,9 +10749,7 @@
       <c r="D534" t="n">
         <v>0</v>
       </c>
-      <c r="E534" t="n">
-        <v>0</v>
-      </c>
+      <c r="E534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -11670,9 +10768,7 @@
       <c r="D535" t="n">
         <v>0</v>
       </c>
-      <c r="E535" t="n">
-        <v>0</v>
-      </c>
+      <c r="E535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -11691,9 +10787,7 @@
       <c r="D536" t="n">
         <v>0</v>
       </c>
-      <c r="E536" t="n">
-        <v>0</v>
-      </c>
+      <c r="E536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -11712,9 +10806,7 @@
       <c r="D537" t="n">
         <v>0</v>
       </c>
-      <c r="E537" t="n">
-        <v>0</v>
-      </c>
+      <c r="E537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -11733,9 +10825,7 @@
       <c r="D538" t="n">
         <v>0</v>
       </c>
-      <c r="E538" t="n">
-        <v>0</v>
-      </c>
+      <c r="E538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -11754,9 +10844,7 @@
       <c r="D539" t="n">
         <v>0</v>
       </c>
-      <c r="E539" t="n">
-        <v>0</v>
-      </c>
+      <c r="E539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -11775,9 +10863,7 @@
       <c r="D540" t="n">
         <v>0</v>
       </c>
-      <c r="E540" t="n">
-        <v>0</v>
-      </c>
+      <c r="E540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -11796,9 +10882,7 @@
       <c r="D541" t="n">
         <v>0</v>
       </c>
-      <c r="E541" t="n">
-        <v>0</v>
-      </c>
+      <c r="E541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -11817,9 +10901,7 @@
       <c r="D542" t="n">
         <v>0</v>
       </c>
-      <c r="E542" t="n">
-        <v>0</v>
-      </c>
+      <c r="E542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -11838,9 +10920,7 @@
       <c r="D543" t="n">
         <v>0</v>
       </c>
-      <c r="E543" t="n">
-        <v>0</v>
-      </c>
+      <c r="E543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -11859,9 +10939,7 @@
       <c r="D544" t="n">
         <v>0</v>
       </c>
-      <c r="E544" t="n">
-        <v>0</v>
-      </c>
+      <c r="E544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -11880,9 +10958,7 @@
       <c r="D545" t="n">
         <v>0</v>
       </c>
-      <c r="E545" t="n">
-        <v>0</v>
-      </c>
+      <c r="E545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -11901,9 +10977,7 @@
       <c r="D546" t="n">
         <v>0</v>
       </c>
-      <c r="E546" t="n">
-        <v>0</v>
-      </c>
+      <c r="E546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -11922,9 +10996,7 @@
       <c r="D547" t="n">
         <v>0</v>
       </c>
-      <c r="E547" t="n">
-        <v>0</v>
-      </c>
+      <c r="E547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -11943,9 +11015,7 @@
       <c r="D548" t="n">
         <v>0</v>
       </c>
-      <c r="E548" t="n">
-        <v>0</v>
-      </c>
+      <c r="E548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -11964,9 +11034,7 @@
       <c r="D549" t="n">
         <v>0</v>
       </c>
-      <c r="E549" t="n">
-        <v>0</v>
-      </c>
+      <c r="E549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -11985,9 +11053,7 @@
       <c r="D550" t="n">
         <v>0</v>
       </c>
-      <c r="E550" t="n">
-        <v>0</v>
-      </c>
+      <c r="E550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -12006,9 +11072,7 @@
       <c r="D551" t="n">
         <v>0</v>
       </c>
-      <c r="E551" t="n">
-        <v>0</v>
-      </c>
+      <c r="E551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -12027,9 +11091,7 @@
       <c r="D552" t="n">
         <v>0</v>
       </c>
-      <c r="E552" t="n">
-        <v>0</v>
-      </c>
+      <c r="E552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -12048,9 +11110,7 @@
       <c r="D553" t="n">
         <v>0</v>
       </c>
-      <c r="E553" t="n">
-        <v>0</v>
-      </c>
+      <c r="E553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -12069,9 +11129,7 @@
       <c r="D554" t="n">
         <v>0</v>
       </c>
-      <c r="E554" t="n">
-        <v>0</v>
-      </c>
+      <c r="E554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -12090,9 +11148,7 @@
       <c r="D555" t="n">
         <v>0</v>
       </c>
-      <c r="E555" t="n">
-        <v>0</v>
-      </c>
+      <c r="E555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -12111,9 +11167,7 @@
       <c r="D556" t="n">
         <v>0</v>
       </c>
-      <c r="E556" t="n">
-        <v>0</v>
-      </c>
+      <c r="E556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -12132,9 +11186,7 @@
       <c r="D557" t="n">
         <v>0</v>
       </c>
-      <c r="E557" t="n">
-        <v>0</v>
-      </c>
+      <c r="E557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -12153,9 +11205,7 @@
       <c r="D558" t="n">
         <v>0</v>
       </c>
-      <c r="E558" t="n">
-        <v>0</v>
-      </c>
+      <c r="E558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -12174,9 +11224,7 @@
       <c r="D559" t="n">
         <v>0</v>
       </c>
-      <c r="E559" t="n">
-        <v>0</v>
-      </c>
+      <c r="E559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -12195,9 +11243,7 @@
       <c r="D560" t="n">
         <v>0</v>
       </c>
-      <c r="E560" t="n">
-        <v>0</v>
-      </c>
+      <c r="E560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -12216,9 +11262,7 @@
       <c r="D561" t="n">
         <v>0</v>
       </c>
-      <c r="E561" t="n">
-        <v>0</v>
-      </c>
+      <c r="E561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -12237,9 +11281,7 @@
       <c r="D562" t="n">
         <v>0</v>
       </c>
-      <c r="E562" t="n">
-        <v>0</v>
-      </c>
+      <c r="E562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -12258,9 +11300,7 @@
       <c r="D563" t="n">
         <v>0</v>
       </c>
-      <c r="E563" t="n">
-        <v>0</v>
-      </c>
+      <c r="E563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -12279,9 +11319,7 @@
       <c r="D564" t="n">
         <v>0</v>
       </c>
-      <c r="E564" t="n">
-        <v>0</v>
-      </c>
+      <c r="E564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -12300,9 +11338,7 @@
       <c r="D565" t="n">
         <v>0</v>
       </c>
-      <c r="E565" t="n">
-        <v>0</v>
-      </c>
+      <c r="E565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -12321,9 +11357,7 @@
       <c r="D566" t="n">
         <v>0</v>
       </c>
-      <c r="E566" t="n">
-        <v>0</v>
-      </c>
+      <c r="E566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -12342,9 +11376,7 @@
       <c r="D567" t="n">
         <v>0</v>
       </c>
-      <c r="E567" t="n">
-        <v>0</v>
-      </c>
+      <c r="E567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -12363,9 +11395,7 @@
       <c r="D568" t="n">
         <v>0</v>
       </c>
-      <c r="E568" t="n">
-        <v>0</v>
-      </c>
+      <c r="E568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -12384,9 +11414,7 @@
       <c r="D569" t="n">
         <v>0</v>
       </c>
-      <c r="E569" t="n">
-        <v>0</v>
-      </c>
+      <c r="E569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -12405,9 +11433,7 @@
       <c r="D570" t="n">
         <v>0</v>
       </c>
-      <c r="E570" t="n">
-        <v>0</v>
-      </c>
+      <c r="E570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -12426,9 +11452,7 @@
       <c r="D571" t="n">
         <v>0</v>
       </c>
-      <c r="E571" t="n">
-        <v>0</v>
-      </c>
+      <c r="E571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -12447,9 +11471,7 @@
       <c r="D572" t="n">
         <v>0</v>
       </c>
-      <c r="E572" t="n">
-        <v>0</v>
-      </c>
+      <c r="E572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -12468,9 +11490,7 @@
       <c r="D573" t="n">
         <v>0</v>
       </c>
-      <c r="E573" t="n">
-        <v>0</v>
-      </c>
+      <c r="E573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -12489,9 +11509,7 @@
       <c r="D574" t="n">
         <v>0</v>
       </c>
-      <c r="E574" t="n">
-        <v>0</v>
-      </c>
+      <c r="E574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -12510,9 +11528,7 @@
       <c r="D575" t="n">
         <v>0</v>
       </c>
-      <c r="E575" t="n">
-        <v>0</v>
-      </c>
+      <c r="E575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -12531,9 +11547,7 @@
       <c r="D576" t="n">
         <v>0</v>
       </c>
-      <c r="E576" t="n">
-        <v>0</v>
-      </c>
+      <c r="E576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -12552,9 +11566,7 @@
       <c r="D577" t="n">
         <v>0</v>
       </c>
-      <c r="E577" t="n">
-        <v>0</v>
-      </c>
+      <c r="E577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -12573,9 +11585,7 @@
       <c r="D578" t="n">
         <v>0</v>
       </c>
-      <c r="E578" t="n">
-        <v>0</v>
-      </c>
+      <c r="E578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -12594,9 +11604,7 @@
       <c r="D579" t="n">
         <v>0</v>
       </c>
-      <c r="E579" t="n">
-        <v>0</v>
-      </c>
+      <c r="E579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -12615,9 +11623,7 @@
       <c r="D580" t="n">
         <v>0</v>
       </c>
-      <c r="E580" t="n">
-        <v>0</v>
-      </c>
+      <c r="E580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -12636,9 +11642,7 @@
       <c r="D581" t="n">
         <v>0</v>
       </c>
-      <c r="E581" t="n">
-        <v>0</v>
-      </c>
+      <c r="E581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -12657,9 +11661,7 @@
       <c r="D582" t="n">
         <v>0</v>
       </c>
-      <c r="E582" t="n">
-        <v>0</v>
-      </c>
+      <c r="E582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -12678,9 +11680,7 @@
       <c r="D583" t="n">
         <v>0</v>
       </c>
-      <c r="E583" t="n">
-        <v>0</v>
-      </c>
+      <c r="E583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -12699,9 +11699,7 @@
       <c r="D584" t="n">
         <v>0</v>
       </c>
-      <c r="E584" t="n">
-        <v>0</v>
-      </c>
+      <c r="E584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -12720,9 +11718,7 @@
       <c r="D585" t="n">
         <v>0</v>
       </c>
-      <c r="E585" t="n">
-        <v>0</v>
-      </c>
+      <c r="E585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -12741,9 +11737,7 @@
       <c r="D586" t="n">
         <v>0</v>
       </c>
-      <c r="E586" t="n">
-        <v>0</v>
-      </c>
+      <c r="E586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -12762,9 +11756,7 @@
       <c r="D587" t="n">
         <v>0</v>
       </c>
-      <c r="E587" t="n">
-        <v>0</v>
-      </c>
+      <c r="E587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -12783,9 +11775,7 @@
       <c r="D588" t="n">
         <v>0</v>
       </c>
-      <c r="E588" t="n">
-        <v>0</v>
-      </c>
+      <c r="E588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -12804,9 +11794,7 @@
       <c r="D589" t="n">
         <v>0</v>
       </c>
-      <c r="E589" t="n">
-        <v>0</v>
-      </c>
+      <c r="E589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -12825,9 +11813,7 @@
       <c r="D590" t="n">
         <v>0</v>
       </c>
-      <c r="E590" t="n">
-        <v>0</v>
-      </c>
+      <c r="E590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -12846,9 +11832,7 @@
       <c r="D591" t="n">
         <v>0</v>
       </c>
-      <c r="E591" t="n">
-        <v>0</v>
-      </c>
+      <c r="E591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -12867,9 +11851,7 @@
       <c r="D592" t="n">
         <v>0</v>
       </c>
-      <c r="E592" t="n">
-        <v>0</v>
-      </c>
+      <c r="E592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -12888,9 +11870,7 @@
       <c r="D593" t="n">
         <v>0</v>
       </c>
-      <c r="E593" t="n">
-        <v>0</v>
-      </c>
+      <c r="E593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -12909,9 +11889,7 @@
       <c r="D594" t="n">
         <v>0</v>
       </c>
-      <c r="E594" t="n">
-        <v>0</v>
-      </c>
+      <c r="E594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -12930,9 +11908,7 @@
       <c r="D595" t="n">
         <v>0</v>
       </c>
-      <c r="E595" t="n">
-        <v>0</v>
-      </c>
+      <c r="E595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -12951,9 +11927,7 @@
       <c r="D596" t="n">
         <v>0</v>
       </c>
-      <c r="E596" t="n">
-        <v>0</v>
-      </c>
+      <c r="E596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -12972,9 +11946,7 @@
       <c r="D597" t="n">
         <v>0</v>
       </c>
-      <c r="E597" t="n">
-        <v>0</v>
-      </c>
+      <c r="E597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -12993,9 +11965,7 @@
       <c r="D598" t="n">
         <v>0</v>
       </c>
-      <c r="E598" t="n">
-        <v>0</v>
-      </c>
+      <c r="E598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -13014,9 +11984,7 @@
       <c r="D599" t="n">
         <v>0</v>
       </c>
-      <c r="E599" t="n">
-        <v>0</v>
-      </c>
+      <c r="E599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -13035,9 +12003,7 @@
       <c r="D600" t="n">
         <v>0</v>
       </c>
-      <c r="E600" t="n">
-        <v>0</v>
-      </c>
+      <c r="E600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -13056,9 +12022,7 @@
       <c r="D601" t="n">
         <v>0</v>
       </c>
-      <c r="E601" t="n">
-        <v>0</v>
-      </c>
+      <c r="E601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -13077,9 +12041,7 @@
       <c r="D602" t="n">
         <v>0</v>
       </c>
-      <c r="E602" t="n">
-        <v>0</v>
-      </c>
+      <c r="E602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -13098,9 +12060,7 @@
       <c r="D603" t="n">
         <v>0</v>
       </c>
-      <c r="E603" t="n">
-        <v>0</v>
-      </c>
+      <c r="E603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -13119,9 +12079,7 @@
       <c r="D604" t="n">
         <v>0</v>
       </c>
-      <c r="E604" t="n">
-        <v>0</v>
-      </c>
+      <c r="E604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -13140,9 +12098,7 @@
       <c r="D605" t="n">
         <v>0</v>
       </c>
-      <c r="E605" t="n">
-        <v>0</v>
-      </c>
+      <c r="E605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -13161,9 +12117,7 @@
       <c r="D606" t="n">
         <v>0</v>
       </c>
-      <c r="E606" t="n">
-        <v>0</v>
-      </c>
+      <c r="E606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -13182,9 +12136,7 @@
       <c r="D607" t="n">
         <v>0</v>
       </c>
-      <c r="E607" t="n">
-        <v>0</v>
-      </c>
+      <c r="E607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -13203,9 +12155,7 @@
       <c r="D608" t="n">
         <v>0</v>
       </c>
-      <c r="E608" t="n">
-        <v>0</v>
-      </c>
+      <c r="E608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -13224,9 +12174,7 @@
       <c r="D609" t="n">
         <v>0</v>
       </c>
-      <c r="E609" t="n">
-        <v>0</v>
-      </c>
+      <c r="E609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -13245,9 +12193,7 @@
       <c r="D610" t="n">
         <v>0</v>
       </c>
-      <c r="E610" t="n">
-        <v>0</v>
-      </c>
+      <c r="E610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -13266,9 +12212,7 @@
       <c r="D611" t="n">
         <v>0</v>
       </c>
-      <c r="E611" t="n">
-        <v>0</v>
-      </c>
+      <c r="E611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -13287,9 +12231,7 @@
       <c r="D612" t="n">
         <v>0</v>
       </c>
-      <c r="E612" t="n">
-        <v>0</v>
-      </c>
+      <c r="E612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -13308,9 +12250,7 @@
       <c r="D613" t="n">
         <v>0</v>
       </c>
-      <c r="E613" t="n">
-        <v>0</v>
-      </c>
+      <c r="E613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -13329,9 +12269,7 @@
       <c r="D614" t="n">
         <v>0</v>
       </c>
-      <c r="E614" t="n">
-        <v>0</v>
-      </c>
+      <c r="E614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -13350,9 +12288,7 @@
       <c r="D615" t="n">
         <v>0</v>
       </c>
-      <c r="E615" t="n">
-        <v>0</v>
-      </c>
+      <c r="E615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -13371,9 +12307,7 @@
       <c r="D616" t="n">
         <v>0</v>
       </c>
-      <c r="E616" t="n">
-        <v>0</v>
-      </c>
+      <c r="E616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -13392,9 +12326,7 @@
       <c r="D617" t="n">
         <v>0</v>
       </c>
-      <c r="E617" t="n">
-        <v>0</v>
-      </c>
+      <c r="E617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -13413,9 +12345,7 @@
       <c r="D618" t="n">
         <v>0</v>
       </c>
-      <c r="E618" t="n">
-        <v>0</v>
-      </c>
+      <c r="E618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -13434,9 +12364,7 @@
       <c r="D619" t="n">
         <v>0</v>
       </c>
-      <c r="E619" t="n">
-        <v>0</v>
-      </c>
+      <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -13455,9 +12383,7 @@
       <c r="D620" t="n">
         <v>0</v>
       </c>
-      <c r="E620" t="n">
-        <v>0</v>
-      </c>
+      <c r="E620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -13476,9 +12402,7 @@
       <c r="D621" t="n">
         <v>0</v>
       </c>
-      <c r="E621" t="n">
-        <v>0</v>
-      </c>
+      <c r="E621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -13497,9 +12421,7 @@
       <c r="D622" t="n">
         <v>0</v>
       </c>
-      <c r="E622" t="n">
-        <v>0</v>
-      </c>
+      <c r="E622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -13518,9 +12440,7 @@
       <c r="D623" t="n">
         <v>0</v>
       </c>
-      <c r="E623" t="n">
-        <v>0</v>
-      </c>
+      <c r="E623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -13539,9 +12459,7 @@
       <c r="D624" t="n">
         <v>0</v>
       </c>
-      <c r="E624" t="n">
-        <v>0</v>
-      </c>
+      <c r="E624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -13560,9 +12478,7 @@
       <c r="D625" t="n">
         <v>0</v>
       </c>
-      <c r="E625" t="n">
-        <v>0</v>
-      </c>
+      <c r="E625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -13581,9 +12497,7 @@
       <c r="D626" t="n">
         <v>0</v>
       </c>
-      <c r="E626" t="n">
-        <v>0</v>
-      </c>
+      <c r="E626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -13602,9 +12516,7 @@
       <c r="D627" t="n">
         <v>0</v>
       </c>
-      <c r="E627" t="n">
-        <v>0</v>
-      </c>
+      <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -13623,9 +12535,7 @@
       <c r="D628" t="n">
         <v>0</v>
       </c>
-      <c r="E628" t="n">
-        <v>0</v>
-      </c>
+      <c r="E628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -13644,9 +12554,7 @@
       <c r="D629" t="n">
         <v>0</v>
       </c>
-      <c r="E629" t="n">
-        <v>0</v>
-      </c>
+      <c r="E629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -13665,9 +12573,7 @@
       <c r="D630" t="n">
         <v>0</v>
       </c>
-      <c r="E630" t="n">
-        <v>0</v>
-      </c>
+      <c r="E630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -13686,9 +12592,7 @@
       <c r="D631" t="n">
         <v>0</v>
       </c>
-      <c r="E631" t="n">
-        <v>0</v>
-      </c>
+      <c r="E631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -13707,9 +12611,7 @@
       <c r="D632" t="n">
         <v>0</v>
       </c>
-      <c r="E632" t="n">
-        <v>0</v>
-      </c>
+      <c r="E632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -13728,9 +12630,7 @@
       <c r="D633" t="n">
         <v>0</v>
       </c>
-      <c r="E633" t="n">
-        <v>0</v>
-      </c>
+      <c r="E633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -13749,9 +12649,7 @@
       <c r="D634" t="n">
         <v>0</v>
       </c>
-      <c r="E634" t="n">
-        <v>0</v>
-      </c>
+      <c r="E634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -13770,9 +12668,7 @@
       <c r="D635" t="n">
         <v>0</v>
       </c>
-      <c r="E635" t="n">
-        <v>0</v>
-      </c>
+      <c r="E635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -13791,9 +12687,7 @@
       <c r="D636" t="n">
         <v>0</v>
       </c>
-      <c r="E636" t="n">
-        <v>0</v>
-      </c>
+      <c r="E636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -13812,9 +12706,7 @@
       <c r="D637" t="n">
         <v>0</v>
       </c>
-      <c r="E637" t="n">
-        <v>0</v>
-      </c>
+      <c r="E637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -13833,9 +12725,7 @@
       <c r="D638" t="n">
         <v>0</v>
       </c>
-      <c r="E638" t="n">
-        <v>0</v>
-      </c>
+      <c r="E638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -13854,9 +12744,7 @@
       <c r="D639" t="n">
         <v>0</v>
       </c>
-      <c r="E639" t="n">
-        <v>0</v>
-      </c>
+      <c r="E639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -13875,9 +12763,7 @@
       <c r="D640" t="n">
         <v>0</v>
       </c>
-      <c r="E640" t="n">
-        <v>0</v>
-      </c>
+      <c r="E640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -13896,9 +12782,7 @@
       <c r="D641" t="n">
         <v>0</v>
       </c>
-      <c r="E641" t="n">
-        <v>0</v>
-      </c>
+      <c r="E641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -13917,9 +12801,7 @@
       <c r="D642" t="n">
         <v>0</v>
       </c>
-      <c r="E642" t="n">
-        <v>0</v>
-      </c>
+      <c r="E642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -13938,9 +12820,7 @@
       <c r="D643" t="n">
         <v>0</v>
       </c>
-      <c r="E643" t="n">
-        <v>0</v>
-      </c>
+      <c r="E643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -13959,9 +12839,7 @@
       <c r="D644" t="n">
         <v>0</v>
       </c>
-      <c r="E644" t="n">
-        <v>0</v>
-      </c>
+      <c r="E644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -13980,9 +12858,7 @@
       <c r="D645" t="n">
         <v>0</v>
       </c>
-      <c r="E645" t="n">
-        <v>0</v>
-      </c>
+      <c r="E645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -14001,9 +12877,7 @@
       <c r="D646" t="n">
         <v>0</v>
       </c>
-      <c r="E646" t="n">
-        <v>0</v>
-      </c>
+      <c r="E646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -14022,9 +12896,7 @@
       <c r="D647" t="n">
         <v>0</v>
       </c>
-      <c r="E647" t="n">
-        <v>0</v>
-      </c>
+      <c r="E647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -14043,9 +12915,7 @@
       <c r="D648" t="n">
         <v>0</v>
       </c>
-      <c r="E648" t="n">
-        <v>0</v>
-      </c>
+      <c r="E648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -14064,9 +12934,7 @@
       <c r="D649" t="n">
         <v>0</v>
       </c>
-      <c r="E649" t="n">
-        <v>0</v>
-      </c>
+      <c r="E649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -14085,9 +12953,7 @@
       <c r="D650" t="n">
         <v>0</v>
       </c>
-      <c r="E650" t="n">
-        <v>0</v>
-      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -14106,9 +12972,7 @@
       <c r="D651" t="n">
         <v>0</v>
       </c>
-      <c r="E651" t="n">
-        <v>0</v>
-      </c>
+      <c r="E651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -14127,9 +12991,7 @@
       <c r="D652" t="n">
         <v>0</v>
       </c>
-      <c r="E652" t="n">
-        <v>0</v>
-      </c>
+      <c r="E652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -14148,9 +13010,7 @@
       <c r="D653" t="n">
         <v>0</v>
       </c>
-      <c r="E653" t="n">
-        <v>0</v>
-      </c>
+      <c r="E653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -14169,9 +13029,7 @@
       <c r="D654" t="n">
         <v>0</v>
       </c>
-      <c r="E654" t="n">
-        <v>0</v>
-      </c>
+      <c r="E654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -14190,9 +13048,7 @@
       <c r="D655" t="n">
         <v>0</v>
       </c>
-      <c r="E655" t="n">
-        <v>0</v>
-      </c>
+      <c r="E655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -14211,9 +13067,7 @@
       <c r="D656" t="n">
         <v>0</v>
       </c>
-      <c r="E656" t="n">
-        <v>0</v>
-      </c>
+      <c r="E656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -14232,9 +13086,7 @@
       <c r="D657" t="n">
         <v>0</v>
       </c>
-      <c r="E657" t="n">
-        <v>0</v>
-      </c>
+      <c r="E657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -14253,9 +13105,7 @@
       <c r="D658" t="n">
         <v>0</v>
       </c>
-      <c r="E658" t="n">
-        <v>0</v>
-      </c>
+      <c r="E658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -14274,9 +13124,7 @@
       <c r="D659" t="n">
         <v>0</v>
       </c>
-      <c r="E659" t="n">
-        <v>0</v>
-      </c>
+      <c r="E659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -14295,9 +13143,7 @@
       <c r="D660" t="n">
         <v>0</v>
       </c>
-      <c r="E660" t="n">
-        <v>0</v>
-      </c>
+      <c r="E660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -14316,9 +13162,7 @@
       <c r="D661" t="n">
         <v>0</v>
       </c>
-      <c r="E661" t="n">
-        <v>0</v>
-      </c>
+      <c r="E661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -14337,9 +13181,7 @@
       <c r="D662" t="n">
         <v>0</v>
       </c>
-      <c r="E662" t="n">
-        <v>0</v>
-      </c>
+      <c r="E662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -14358,9 +13200,7 @@
       <c r="D663" t="n">
         <v>0</v>
       </c>
-      <c r="E663" t="n">
-        <v>0</v>
-      </c>
+      <c r="E663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -14379,9 +13219,7 @@
       <c r="D664" t="n">
         <v>0</v>
       </c>
-      <c r="E664" t="n">
-        <v>0</v>
-      </c>
+      <c r="E664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -14400,9 +13238,7 @@
       <c r="D665" t="n">
         <v>0</v>
       </c>
-      <c r="E665" t="n">
-        <v>0</v>
-      </c>
+      <c r="E665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -14421,9 +13257,7 @@
       <c r="D666" t="n">
         <v>0</v>
       </c>
-      <c r="E666" t="n">
-        <v>0</v>
-      </c>
+      <c r="E666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -14442,9 +13276,7 @@
       <c r="D667" t="n">
         <v>0</v>
       </c>
-      <c r="E667" t="n">
-        <v>0</v>
-      </c>
+      <c r="E667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -14463,9 +13295,7 @@
       <c r="D668" t="n">
         <v>0</v>
       </c>
-      <c r="E668" t="n">
-        <v>0</v>
-      </c>
+      <c r="E668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -14484,9 +13314,7 @@
       <c r="D669" t="n">
         <v>0</v>
       </c>
-      <c r="E669" t="n">
-        <v>0</v>
-      </c>
+      <c r="E669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -14505,9 +13333,7 @@
       <c r="D670" t="n">
         <v>0</v>
       </c>
-      <c r="E670" t="n">
-        <v>0</v>
-      </c>
+      <c r="E670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -14526,9 +13352,7 @@
       <c r="D671" t="n">
         <v>0</v>
       </c>
-      <c r="E671" t="n">
-        <v>0</v>
-      </c>
+      <c r="E671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -14547,9 +13371,7 @@
       <c r="D672" t="n">
         <v>0</v>
       </c>
-      <c r="E672" t="n">
-        <v>0</v>
-      </c>
+      <c r="E672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -14568,9 +13390,7 @@
       <c r="D673" t="n">
         <v>0</v>
       </c>
-      <c r="E673" t="n">
-        <v>0</v>
-      </c>
+      <c r="E673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -14589,9 +13409,7 @@
       <c r="D674" t="n">
         <v>0</v>
       </c>
-      <c r="E674" t="n">
-        <v>0</v>
-      </c>
+      <c r="E674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -14610,9 +13428,7 @@
       <c r="D675" t="n">
         <v>0</v>
       </c>
-      <c r="E675" t="n">
-        <v>0</v>
-      </c>
+      <c r="E675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -14631,9 +13447,7 @@
       <c r="D676" t="n">
         <v>0</v>
       </c>
-      <c r="E676" t="n">
-        <v>0</v>
-      </c>
+      <c r="E676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -14652,9 +13466,7 @@
       <c r="D677" t="n">
         <v>0</v>
       </c>
-      <c r="E677" t="n">
-        <v>0</v>
-      </c>
+      <c r="E677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -14673,9 +13485,7 @@
       <c r="D678" t="n">
         <v>0</v>
       </c>
-      <c r="E678" t="n">
-        <v>0</v>
-      </c>
+      <c r="E678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -14694,9 +13504,7 @@
       <c r="D679" t="n">
         <v>0</v>
       </c>
-      <c r="E679" t="n">
-        <v>0</v>
-      </c>
+      <c r="E679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -14715,9 +13523,7 @@
       <c r="D680" t="n">
         <v>0</v>
       </c>
-      <c r="E680" t="n">
-        <v>0</v>
-      </c>
+      <c r="E680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -14736,9 +13542,7 @@
       <c r="D681" t="n">
         <v>0</v>
       </c>
-      <c r="E681" t="n">
-        <v>0</v>
-      </c>
+      <c r="E681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -14757,9 +13561,7 @@
       <c r="D682" t="n">
         <v>0</v>
       </c>
-      <c r="E682" t="n">
-        <v>0</v>
-      </c>
+      <c r="E682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -14778,9 +13580,7 @@
       <c r="D683" t="n">
         <v>0</v>
       </c>
-      <c r="E683" t="n">
-        <v>0</v>
-      </c>
+      <c r="E683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -14799,9 +13599,7 @@
       <c r="D684" t="n">
         <v>0</v>
       </c>
-      <c r="E684" t="n">
-        <v>0</v>
-      </c>
+      <c r="E684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -14820,9 +13618,7 @@
       <c r="D685" t="n">
         <v>0</v>
       </c>
-      <c r="E685" t="n">
-        <v>0</v>
-      </c>
+      <c r="E685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -14841,9 +13637,7 @@
       <c r="D686" t="n">
         <v>0</v>
       </c>
-      <c r="E686" t="n">
-        <v>0</v>
-      </c>
+      <c r="E686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -14862,9 +13656,7 @@
       <c r="D687" t="n">
         <v>0</v>
       </c>
-      <c r="E687" t="n">
-        <v>0</v>
-      </c>
+      <c r="E687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -14883,9 +13675,7 @@
       <c r="D688" t="n">
         <v>0</v>
       </c>
-      <c r="E688" t="n">
-        <v>0</v>
-      </c>
+      <c r="E688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -14904,9 +13694,7 @@
       <c r="D689" t="n">
         <v>0</v>
       </c>
-      <c r="E689" t="n">
-        <v>0</v>
-      </c>
+      <c r="E689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -14925,9 +13713,7 @@
       <c r="D690" t="n">
         <v>0</v>
       </c>
-      <c r="E690" t="n">
-        <v>0</v>
-      </c>
+      <c r="E690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -14946,9 +13732,7 @@
       <c r="D691" t="n">
         <v>0</v>
       </c>
-      <c r="E691" t="n">
-        <v>0</v>
-      </c>
+      <c r="E691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -14967,9 +13751,7 @@
       <c r="D692" t="n">
         <v>0</v>
       </c>
-      <c r="E692" t="n">
-        <v>0</v>
-      </c>
+      <c r="E692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -14988,9 +13770,7 @@
       <c r="D693" t="n">
         <v>0</v>
       </c>
-      <c r="E693" t="n">
-        <v>0</v>
-      </c>
+      <c r="E693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -15009,9 +13789,7 @@
       <c r="D694" t="n">
         <v>0</v>
       </c>
-      <c r="E694" t="n">
-        <v>0</v>
-      </c>
+      <c r="E694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -15030,9 +13808,7 @@
       <c r="D695" t="n">
         <v>0</v>
       </c>
-      <c r="E695" t="n">
-        <v>0</v>
-      </c>
+      <c r="E695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -15051,9 +13827,7 @@
       <c r="D696" t="n">
         <v>0</v>
       </c>
-      <c r="E696" t="n">
-        <v>0</v>
-      </c>
+      <c r="E696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -15072,9 +13846,7 @@
       <c r="D697" t="n">
         <v>0</v>
       </c>
-      <c r="E697" t="n">
-        <v>0</v>
-      </c>
+      <c r="E697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -15093,9 +13865,7 @@
       <c r="D698" t="n">
         <v>0</v>
       </c>
-      <c r="E698" t="n">
-        <v>0</v>
-      </c>
+      <c r="E698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -15114,9 +13884,7 @@
       <c r="D699" t="n">
         <v>0</v>
       </c>
-      <c r="E699" t="n">
-        <v>0</v>
-      </c>
+      <c r="E699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -15135,9 +13903,7 @@
       <c r="D700" t="n">
         <v>0</v>
       </c>
-      <c r="E700" t="n">
-        <v>0</v>
-      </c>
+      <c r="E700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -15156,9 +13922,7 @@
       <c r="D701" t="n">
         <v>0</v>
       </c>
-      <c r="E701" t="n">
-        <v>0</v>
-      </c>
+      <c r="E701" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SearchResults_topic_mental-health_guideline.xlsx
+++ b/SearchResults_topic_mental-health_guideline.xlsx
@@ -581,14 +581,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>38917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -605,11 +603,9 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>40093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -623,14 +619,12 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>42359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -644,14 +638,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>44137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -665,14 +657,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>44137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -686,14 +676,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>42878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -707,14 +695,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>41565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -731,11 +717,9 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>43200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -749,14 +733,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>43185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -770,14 +752,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>41944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -791,14 +771,12 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>43055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -812,14 +790,12 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>42698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -836,11 +812,9 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>42914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -854,14 +828,12 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>43453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -875,14 +847,12 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>39281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -896,14 +866,12 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>42884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -917,14 +885,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>43061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -938,14 +904,12 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>43851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -962,11 +926,9 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>43886</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -980,14 +942,12 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>40954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1004,11 +964,9 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>38644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1025,11 +983,9 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>41255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1043,14 +999,12 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>43959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1064,14 +1018,12 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>43178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1085,14 +1037,12 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>45050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1106,14 +1056,12 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>43816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1127,14 +1075,12 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>39106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1151,11 +1097,9 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>37095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1172,11 +1116,9 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>44467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1193,11 +1135,9 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>39281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1211,14 +1151,12 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>43794</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1235,11 +1173,9 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>44015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1256,11 +1192,9 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>36367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1274,14 +1208,12 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>42759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1295,14 +1227,12 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>41475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1319,11 +1249,9 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>44395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1337,14 +1265,12 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>36822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1358,14 +1284,12 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>36549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1382,11 +1306,9 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>39918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1403,11 +1325,9 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>39470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1421,14 +1341,12 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>42115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1442,14 +1360,12 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>43006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1463,14 +1379,12 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>41973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1487,11 +1401,9 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>37733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1505,14 +1417,12 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>43077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1529,11 +1439,9 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1547,14 +1455,12 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>42719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1568,14 +1474,12 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>44150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1589,14 +1493,12 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>40618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1610,14 +1512,12 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>43559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1634,11 +1534,9 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>44259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1652,14 +1550,12 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>39834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1673,14 +1569,12 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>39008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1694,14 +1588,12 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>42759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1718,11 +1610,9 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>42054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1739,11 +1629,9 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>43576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1760,11 +1648,9 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>44998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1778,14 +1664,12 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>42339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1799,14 +1683,12 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>42265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1823,11 +1705,9 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>41255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1841,14 +1721,12 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>39281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1862,14 +1740,12 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>41669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1883,14 +1759,12 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>42104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1904,14 +1778,12 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="n">
-        <v>42097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1925,14 +1797,12 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>38644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1946,14 +1816,12 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="n">
-        <v>38462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1970,11 +1838,9 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>41199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1988,14 +1854,12 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>37368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2012,11 +1876,9 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>43687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2033,11 +1895,9 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>44524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2051,14 +1911,12 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>36913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2072,14 +1930,12 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>38917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2096,11 +1952,9 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="n">
-        <v>44602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2114,14 +1968,12 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="2" t="n">
-        <v>42741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2135,14 +1987,12 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>39008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
